--- a/site/public/demo-data/linkedin-demo.xlsx
+++ b/site/public/demo-data/linkedin-demo.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="477">
   <si>
     <t>Overall Performance</t>
   </si>
   <si>
-    <t>11/19/2024 - 11/18/2025</t>
+    <t>12/12/2024 - 12/11/2025</t>
   </si>
   <si>
     <t>Impressions</t>
@@ -36,75 +36,6 @@
     <t>Engagements</t>
   </si>
   <si>
-    <t>11/19/2024</t>
-  </si>
-  <si>
-    <t>11/20/2024</t>
-  </si>
-  <si>
-    <t>11/21/2024</t>
-  </si>
-  <si>
-    <t>11/22/2024</t>
-  </si>
-  <si>
-    <t>11/23/2024</t>
-  </si>
-  <si>
-    <t>11/24/2024</t>
-  </si>
-  <si>
-    <t>11/25/2024</t>
-  </si>
-  <si>
-    <t>11/26/2024</t>
-  </si>
-  <si>
-    <t>11/27/2024</t>
-  </si>
-  <si>
-    <t>11/28/2024</t>
-  </si>
-  <si>
-    <t>11/29/2024</t>
-  </si>
-  <si>
-    <t>11/30/2024</t>
-  </si>
-  <si>
-    <t>12/1/2024</t>
-  </si>
-  <si>
-    <t>12/2/2024</t>
-  </si>
-  <si>
-    <t>12/3/2024</t>
-  </si>
-  <si>
-    <t>12/4/2024</t>
-  </si>
-  <si>
-    <t>12/5/2024</t>
-  </si>
-  <si>
-    <t>12/6/2024</t>
-  </si>
-  <si>
-    <t>12/7/2024</t>
-  </si>
-  <si>
-    <t>12/8/2024</t>
-  </si>
-  <si>
-    <t>12/9/2024</t>
-  </si>
-  <si>
-    <t>12/10/2024</t>
-  </si>
-  <si>
-    <t>12/11/2024</t>
-  </si>
-  <si>
     <t>12/12/2024</t>
   </si>
   <si>
@@ -1131,6 +1062,75 @@
     <t>11/18/2025</t>
   </si>
   <si>
+    <t>11/19/2025</t>
+  </si>
+  <si>
+    <t>11/20/2025</t>
+  </si>
+  <si>
+    <t>11/21/2025</t>
+  </si>
+  <si>
+    <t>11/22/2025</t>
+  </si>
+  <si>
+    <t>11/23/2025</t>
+  </si>
+  <si>
+    <t>11/24/2025</t>
+  </si>
+  <si>
+    <t>11/25/2025</t>
+  </si>
+  <si>
+    <t>11/26/2025</t>
+  </si>
+  <si>
+    <t>11/27/2025</t>
+  </si>
+  <si>
+    <t>11/28/2025</t>
+  </si>
+  <si>
+    <t>11/29/2025</t>
+  </si>
+  <si>
+    <t>11/30/2025</t>
+  </si>
+  <si>
+    <t>12/1/2025</t>
+  </si>
+  <si>
+    <t>12/2/2025</t>
+  </si>
+  <si>
+    <t>12/3/2025</t>
+  </si>
+  <si>
+    <t>12/4/2025</t>
+  </si>
+  <si>
+    <t>12/5/2025</t>
+  </si>
+  <si>
+    <t>12/6/2025</t>
+  </si>
+  <si>
+    <t>12/7/2025</t>
+  </si>
+  <si>
+    <t>12/8/2025</t>
+  </si>
+  <si>
+    <t>12/9/2025</t>
+  </si>
+  <si>
+    <t>12/10/2025</t>
+  </si>
+  <si>
+    <t>12/11/2025</t>
+  </si>
+  <si>
     <t>Maximum of 50 posts available to include in this list</t>
   </si>
   <si>
@@ -1224,12 +1224,12 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7311452043422957571</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7322639488566890497</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7364680261269090304</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7322639488566890497</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7384600277535969280</t>
   </si>
   <si>
@@ -1242,21 +1242,24 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7375918487682297856</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7394732042997116928</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7350532051038572544</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7372275372643749888</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7379164450970415105</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7372275372643749888</t>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7374457289954496512</t>
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7318664580442775553</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7374457289954496512</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7318302193428680711</t>
   </si>
   <si>
@@ -1269,64 +1272,58 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7358206776430796801</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7394732042997116928</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7349437390320484353</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7392214274271563777</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7396517542548381696</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7388937604433600512</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7336028985576841216</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7315033150403874816</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7336028985576841216</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7343284287707750403</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7388937604433600512</t>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7310001438842122240</t>
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7381342582137651200</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7310001438842122240</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7392214274271563777</t>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7373362467118407680</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7393648728588374017</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7293772041122381824</t>
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7375906734093082624</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7373362467118407680</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7269745171888570368</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7293772041122381824</t>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7317577439910518785</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7334649828242571267</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7378485315176534017</t>
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7273484794833833984</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7317577439910518785</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7320098994158788608</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7334649828242571267</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7353068780115091456</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7378485315176534017</t>
-  </si>
-  <si>
-    <t>Total followers on 11/18/2025:</t>
+    <t>Total followers on 12/11/2025:</t>
   </si>
   <si>
     <t>New followers</t>
@@ -1422,10 +1419,10 @@
     <t>1001-5000 employees</t>
   </si>
   <si>
+    <t>51-200 employees</t>
+  </si>
+  <si>
     <t>11-50 employees</t>
-  </si>
-  <si>
-    <t>51-200 employees</t>
   </si>
   <si>
     <t>1-10 employees</t>
@@ -3602,7 +3599,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>860742.0</v>
+        <v>868196.0</v>
       </c>
     </row>
     <row r="3">
@@ -3610,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>296950.0</v>
+        <v>297785.0</v>
       </c>
     </row>
   </sheetData>
@@ -3647,10 +3644,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>420.0</v>
+        <v>605.0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -3658,10 +3655,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>623.0</v>
+        <v>259.0</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -3669,10 +3666,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>581.0</v>
+        <v>840.0</v>
       </c>
       <c r="C4" t="n">
-        <v>16.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
@@ -3680,10 +3677,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>196.0</v>
+        <v>326.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -3691,10 +3688,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>118.0</v>
+        <v>319.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
@@ -3702,10 +3699,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>181.0</v>
+        <v>206.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -3713,10 +3710,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>232.0</v>
+        <v>100.0</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -3724,10 +3721,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>209.0</v>
+        <v>96.0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -3735,10 +3732,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>102.0</v>
+        <v>10450.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="11">
@@ -3746,10 +3743,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>141.0</v>
+        <v>1103.0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
@@ -3757,10 +3754,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>102.0</v>
+        <v>809.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
@@ -3768,10 +3765,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>634.0</v>
+        <v>601.0</v>
       </c>
       <c r="C13" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
@@ -3779,10 +3776,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>555.0</v>
+        <v>339.0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -3790,10 +3787,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>256.0</v>
+        <v>235.0</v>
       </c>
       <c r="C15" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -3801,10 +3798,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>723.0</v>
+        <v>137.0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -3812,10 +3809,10 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>508.0</v>
+        <v>157.0</v>
       </c>
       <c r="C17" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -3823,10 +3820,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>261.0</v>
+        <v>100.0</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -3834,10 +3831,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>175.0</v>
+        <v>1618.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="20">
@@ -3845,10 +3842,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>109.0</v>
+        <v>2476.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="21">
@@ -3856,10 +3853,10 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>127.0</v>
+        <v>2220.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="22">
@@ -3867,7 +3864,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>137.0</v>
+        <v>1071.0</v>
       </c>
       <c r="C22" t="n">
         <v>3.0</v>
@@ -3878,10 +3875,10 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>96.0</v>
+        <v>982.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
@@ -3889,10 +3886,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>648.0</v>
+        <v>748.0</v>
       </c>
       <c r="C24" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="25">
@@ -3900,10 +3897,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>605.0</v>
+        <v>457.0</v>
       </c>
       <c r="C25" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
@@ -3911,10 +3908,10 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>259.0</v>
+        <v>504.0</v>
       </c>
       <c r="C26" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
@@ -3922,10 +3919,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>840.0</v>
+        <v>489.0</v>
       </c>
       <c r="C27" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -3933,10 +3930,10 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>326.0</v>
+        <v>1771.0</v>
       </c>
       <c r="C28" t="n">
-        <v>4.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="29">
@@ -3944,10 +3941,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>319.0</v>
+        <v>1186.0</v>
       </c>
       <c r="C29" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="30">
@@ -3955,10 +3952,10 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>206.0</v>
+        <v>1179.0</v>
       </c>
       <c r="C30" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
@@ -3966,10 +3963,10 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>100.0</v>
+        <v>1582.0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="32">
@@ -3977,10 +3974,10 @@
         <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>96.0</v>
+        <v>5434.0</v>
       </c>
       <c r="C32" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="33">
@@ -3988,10 +3985,10 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>10450.0</v>
+        <v>4986.0</v>
       </c>
       <c r="C33" t="n">
-        <v>141.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="34">
@@ -3999,10 +3996,10 @@
         <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>1103.0</v>
+        <v>1102.0</v>
       </c>
       <c r="C34" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
@@ -4010,10 +4007,10 @@
         <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>809.0</v>
+        <v>1039.0</v>
       </c>
       <c r="C35" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="36">
@@ -4021,10 +4018,10 @@
         <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>601.0</v>
+        <v>376.0</v>
       </c>
       <c r="C36" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -4032,10 +4029,10 @@
         <v>41</v>
       </c>
       <c r="B37" t="n">
-        <v>339.0</v>
+        <v>895.0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="38">
@@ -4043,10 +4040,10 @@
         <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>235.0</v>
+        <v>756.0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="39">
@@ -4054,10 +4051,10 @@
         <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>137.0</v>
+        <v>147.0</v>
       </c>
       <c r="C39" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -4065,10 +4062,10 @@
         <v>44</v>
       </c>
       <c r="B40" t="n">
-        <v>157.0</v>
+        <v>121.0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
@@ -4076,10 +4073,10 @@
         <v>45</v>
       </c>
       <c r="B41" t="n">
-        <v>100.0</v>
+        <v>1019.0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="42">
@@ -4087,10 +4084,10 @@
         <v>46</v>
       </c>
       <c r="B42" t="n">
-        <v>1618.0</v>
+        <v>298.0</v>
       </c>
       <c r="C42" t="n">
-        <v>24.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
@@ -4098,10 +4095,10 @@
         <v>47</v>
       </c>
       <c r="B43" t="n">
-        <v>2476.0</v>
+        <v>178.0</v>
       </c>
       <c r="C43" t="n">
-        <v>17.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
@@ -4109,10 +4106,10 @@
         <v>48</v>
       </c>
       <c r="B44" t="n">
-        <v>2220.0</v>
+        <v>231.0</v>
       </c>
       <c r="C44" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="45">
@@ -4120,10 +4117,10 @@
         <v>49</v>
       </c>
       <c r="B45" t="n">
-        <v>1071.0</v>
+        <v>667.0</v>
       </c>
       <c r="C45" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="46">
@@ -4131,10 +4128,10 @@
         <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>982.0</v>
+        <v>315.0</v>
       </c>
       <c r="C46" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="47">
@@ -4142,10 +4139,10 @@
         <v>51</v>
       </c>
       <c r="B47" t="n">
-        <v>748.0</v>
+        <v>279.0</v>
       </c>
       <c r="C47" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="48">
@@ -4153,10 +4150,10 @@
         <v>52</v>
       </c>
       <c r="B48" t="n">
-        <v>457.0</v>
+        <v>243.0</v>
       </c>
       <c r="C48" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="49">
@@ -4164,7 +4161,7 @@
         <v>53</v>
       </c>
       <c r="B49" t="n">
-        <v>504.0</v>
+        <v>149.0</v>
       </c>
       <c r="C49" t="n">
         <v>3.0</v>
@@ -4175,10 +4172,10 @@
         <v>54</v>
       </c>
       <c r="B50" t="n">
-        <v>489.0</v>
+        <v>154.0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -4186,10 +4183,10 @@
         <v>55</v>
       </c>
       <c r="B51" t="n">
-        <v>1771.0</v>
+        <v>329.0</v>
       </c>
       <c r="C51" t="n">
-        <v>34.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
@@ -4197,10 +4194,10 @@
         <v>56</v>
       </c>
       <c r="B52" t="n">
-        <v>1186.0</v>
+        <v>134.0</v>
       </c>
       <c r="C52" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
@@ -4208,10 +4205,10 @@
         <v>57</v>
       </c>
       <c r="B53" t="n">
-        <v>1179.0</v>
+        <v>62.0</v>
       </c>
       <c r="C53" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -4219,10 +4216,10 @@
         <v>58</v>
       </c>
       <c r="B54" t="n">
-        <v>1582.0</v>
+        <v>88.0</v>
       </c>
       <c r="C54" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
@@ -4230,10 +4227,10 @@
         <v>59</v>
       </c>
       <c r="B55" t="n">
-        <v>5434.0</v>
+        <v>103.0</v>
       </c>
       <c r="C55" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
@@ -4241,10 +4238,10 @@
         <v>60</v>
       </c>
       <c r="B56" t="n">
-        <v>4986.0</v>
+        <v>181.0</v>
       </c>
       <c r="C56" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -4252,10 +4249,10 @@
         <v>61</v>
       </c>
       <c r="B57" t="n">
-        <v>1102.0</v>
+        <v>127.0</v>
       </c>
       <c r="C57" t="n">
-        <v>6.0</v>
+        <v>-2.0</v>
       </c>
     </row>
     <row r="58">
@@ -4263,10 +4260,10 @@
         <v>62</v>
       </c>
       <c r="B58" t="n">
-        <v>1039.0</v>
+        <v>150.0</v>
       </c>
       <c r="C58" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -4274,10 +4271,10 @@
         <v>63</v>
       </c>
       <c r="B59" t="n">
-        <v>376.0</v>
+        <v>480.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="60">
@@ -4285,10 +4282,10 @@
         <v>64</v>
       </c>
       <c r="B60" t="n">
-        <v>895.0</v>
+        <v>2616.0</v>
       </c>
       <c r="C60" t="n">
-        <v>10.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="61">
@@ -4296,10 +4293,10 @@
         <v>65</v>
       </c>
       <c r="B61" t="n">
-        <v>756.0</v>
+        <v>421.0</v>
       </c>
       <c r="C61" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="62">
@@ -4307,10 +4304,10 @@
         <v>66</v>
       </c>
       <c r="B62" t="n">
-        <v>147.0</v>
+        <v>246.0</v>
       </c>
       <c r="C62" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
@@ -4318,10 +4315,10 @@
         <v>67</v>
       </c>
       <c r="B63" t="n">
-        <v>121.0</v>
+        <v>194.0</v>
       </c>
       <c r="C63" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
@@ -4329,10 +4326,10 @@
         <v>68</v>
       </c>
       <c r="B64" t="n">
-        <v>1019.0</v>
+        <v>133.0</v>
       </c>
       <c r="C64" t="n">
-        <v>24.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
@@ -4340,10 +4337,10 @@
         <v>69</v>
       </c>
       <c r="B65" t="n">
-        <v>298.0</v>
+        <v>488.0</v>
       </c>
       <c r="C65" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="66">
@@ -4351,10 +4348,10 @@
         <v>70</v>
       </c>
       <c r="B66" t="n">
-        <v>178.0</v>
+        <v>7889.0</v>
       </c>
       <c r="C66" t="n">
-        <v>3.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="67">
@@ -4362,10 +4359,10 @@
         <v>71</v>
       </c>
       <c r="B67" t="n">
-        <v>231.0</v>
+        <v>980.0</v>
       </c>
       <c r="C67" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="68">
@@ -4373,10 +4370,10 @@
         <v>72</v>
       </c>
       <c r="B68" t="n">
-        <v>667.0</v>
+        <v>695.0</v>
       </c>
       <c r="C68" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
@@ -4384,10 +4381,10 @@
         <v>73</v>
       </c>
       <c r="B69" t="n">
-        <v>315.0</v>
+        <v>372.0</v>
       </c>
       <c r="C69" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -4395,10 +4392,10 @@
         <v>74</v>
       </c>
       <c r="B70" t="n">
-        <v>279.0</v>
+        <v>781.0</v>
       </c>
       <c r="C70" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="71">
@@ -4406,10 +4403,10 @@
         <v>75</v>
       </c>
       <c r="B71" t="n">
-        <v>243.0</v>
+        <v>539.0</v>
       </c>
       <c r="C71" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
@@ -4417,10 +4414,10 @@
         <v>76</v>
       </c>
       <c r="B72" t="n">
-        <v>149.0</v>
+        <v>1458.0</v>
       </c>
       <c r="C72" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="73">
@@ -4428,7 +4425,7 @@
         <v>77</v>
       </c>
       <c r="B73" t="n">
-        <v>154.0</v>
+        <v>598.0</v>
       </c>
       <c r="C73" t="n">
         <v>2.0</v>
@@ -4439,7 +4436,7 @@
         <v>78</v>
       </c>
       <c r="B74" t="n">
-        <v>329.0</v>
+        <v>182.0</v>
       </c>
       <c r="C74" t="n">
         <v>1.0</v>
@@ -4450,7 +4447,7 @@
         <v>79</v>
       </c>
       <c r="B75" t="n">
-        <v>134.0</v>
+        <v>174.0</v>
       </c>
       <c r="C75" t="n">
         <v>1.0</v>
@@ -4461,7 +4458,7 @@
         <v>80</v>
       </c>
       <c r="B76" t="n">
-        <v>62.0</v>
+        <v>152.0</v>
       </c>
       <c r="C76" t="n">
         <v>1.0</v>
@@ -4472,10 +4469,10 @@
         <v>81</v>
       </c>
       <c r="B77" t="n">
-        <v>88.0</v>
+        <v>162.0</v>
       </c>
       <c r="C77" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
@@ -4483,7 +4480,7 @@
         <v>82</v>
       </c>
       <c r="B78" t="n">
-        <v>103.0</v>
+        <v>136.0</v>
       </c>
       <c r="C78" t="n">
         <v>2.0</v>
@@ -4494,10 +4491,10 @@
         <v>83</v>
       </c>
       <c r="B79" t="n">
-        <v>181.0</v>
+        <v>407.0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="80">
@@ -4505,10 +4502,10 @@
         <v>84</v>
       </c>
       <c r="B80" t="n">
-        <v>127.0</v>
+        <v>136.0</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -4516,7 +4513,7 @@
         <v>85</v>
       </c>
       <c r="B81" t="n">
-        <v>150.0</v>
+        <v>155.0</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -4527,10 +4524,10 @@
         <v>86</v>
       </c>
       <c r="B82" t="n">
-        <v>480.0</v>
+        <v>177.0</v>
       </c>
       <c r="C82" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="83">
@@ -4538,10 +4535,10 @@
         <v>87</v>
       </c>
       <c r="B83" t="n">
-        <v>2616.0</v>
+        <v>138.0</v>
       </c>
       <c r="C83" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -4549,10 +4546,10 @@
         <v>88</v>
       </c>
       <c r="B84" t="n">
-        <v>421.0</v>
+        <v>139.0</v>
       </c>
       <c r="C84" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
@@ -4560,10 +4557,10 @@
         <v>89</v>
       </c>
       <c r="B85" t="n">
-        <v>246.0</v>
+        <v>170.0</v>
       </c>
       <c r="C85" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="86">
@@ -4571,10 +4568,10 @@
         <v>90</v>
       </c>
       <c r="B86" t="n">
-        <v>194.0</v>
+        <v>98.0</v>
       </c>
       <c r="C86" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
@@ -4582,10 +4579,10 @@
         <v>91</v>
       </c>
       <c r="B87" t="n">
-        <v>133.0</v>
+        <v>88.0</v>
       </c>
       <c r="C87" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
@@ -4593,10 +4590,10 @@
         <v>92</v>
       </c>
       <c r="B88" t="n">
-        <v>488.0</v>
+        <v>37.0</v>
       </c>
       <c r="C88" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="89">
@@ -4604,10 +4601,10 @@
         <v>93</v>
       </c>
       <c r="B89" t="n">
-        <v>7889.0</v>
+        <v>687.0</v>
       </c>
       <c r="C89" t="n">
-        <v>45.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="90">
@@ -4615,10 +4612,10 @@
         <v>94</v>
       </c>
       <c r="B90" t="n">
-        <v>980.0</v>
+        <v>146.0</v>
       </c>
       <c r="C90" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
@@ -4626,10 +4623,10 @@
         <v>95</v>
       </c>
       <c r="B91" t="n">
-        <v>695.0</v>
+        <v>979.0</v>
       </c>
       <c r="C91" t="n">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="92">
@@ -4637,10 +4634,10 @@
         <v>96</v>
       </c>
       <c r="B92" t="n">
-        <v>372.0</v>
+        <v>285.0</v>
       </c>
       <c r="C92" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="93">
@@ -4648,10 +4645,10 @@
         <v>97</v>
       </c>
       <c r="B93" t="n">
-        <v>781.0</v>
+        <v>171.0</v>
       </c>
       <c r="C93" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="94">
@@ -4659,10 +4656,10 @@
         <v>98</v>
       </c>
       <c r="B94" t="n">
-        <v>539.0</v>
+        <v>720.0</v>
       </c>
       <c r="C94" t="n">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="95">
@@ -4670,10 +4667,10 @@
         <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>1458.0</v>
+        <v>1531.0</v>
       </c>
       <c r="C95" t="n">
-        <v>18.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="96">
@@ -4681,10 +4678,10 @@
         <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>598.0</v>
+        <v>414.0</v>
       </c>
       <c r="C96" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="97">
@@ -4692,10 +4689,10 @@
         <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>182.0</v>
+        <v>480.0</v>
       </c>
       <c r="C97" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="98">
@@ -4703,10 +4700,10 @@
         <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>174.0</v>
+        <v>311.0</v>
       </c>
       <c r="C98" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="99">
@@ -4714,10 +4711,10 @@
         <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>152.0</v>
+        <v>1002.0</v>
       </c>
       <c r="C99" t="n">
-        <v>1.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="100">
@@ -4725,10 +4722,10 @@
         <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>162.0</v>
+        <v>3852.0</v>
       </c>
       <c r="C100" t="n">
-        <v>3.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="101">
@@ -4736,10 +4733,10 @@
         <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>136.0</v>
+        <v>7935.0</v>
       </c>
       <c r="C101" t="n">
-        <v>2.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="102">
@@ -4747,10 +4744,10 @@
         <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>407.0</v>
+        <v>20030.0</v>
       </c>
       <c r="C102" t="n">
-        <v>4.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="103">
@@ -4758,10 +4755,10 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>136.0</v>
+        <v>2456.0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="104">
@@ -4769,10 +4766,10 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>155.0</v>
+        <v>3403.0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="105">
@@ -4780,10 +4777,10 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>177.0</v>
+        <v>2505.0</v>
       </c>
       <c r="C105" t="n">
-        <v>3.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="106">
@@ -4791,10 +4788,10 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>138.0</v>
+        <v>4771.0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="107">
@@ -4802,10 +4799,10 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>139.0</v>
+        <v>3293.0</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="108">
@@ -4813,10 +4810,10 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>170.0</v>
+        <v>5846.0</v>
       </c>
       <c r="C108" t="n">
-        <v>3.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="109">
@@ -4824,10 +4821,10 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>98.0</v>
+        <v>2963.0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="110">
@@ -4835,10 +4832,10 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>88.0</v>
+        <v>1419.0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="111">
@@ -4846,10 +4843,10 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>37.0</v>
+        <v>2322.0</v>
       </c>
       <c r="C111" t="n">
-        <v>2.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="112">
@@ -4857,10 +4854,10 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>687.0</v>
+        <v>2551.0</v>
       </c>
       <c r="C112" t="n">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="113">
@@ -4868,10 +4865,10 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>146.0</v>
+        <v>3732.0</v>
       </c>
       <c r="C113" t="n">
-        <v>1.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="114">
@@ -4879,10 +4876,10 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>979.0</v>
+        <v>3680.0</v>
       </c>
       <c r="C114" t="n">
-        <v>17.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="115">
@@ -4890,10 +4887,10 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>285.0</v>
+        <v>1841.0</v>
       </c>
       <c r="C115" t="n">
-        <v>3.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="116">
@@ -4901,10 +4898,10 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>171.0</v>
+        <v>666.0</v>
       </c>
       <c r="C116" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="117">
@@ -4912,10 +4909,10 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>720.0</v>
+        <v>526.0</v>
       </c>
       <c r="C117" t="n">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="118">
@@ -4923,10 +4920,10 @@
         <v>122</v>
       </c>
       <c r="B118" t="n">
-        <v>1531.0</v>
+        <v>2703.0</v>
       </c>
       <c r="C118" t="n">
-        <v>65.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="119">
@@ -4934,10 +4931,10 @@
         <v>123</v>
       </c>
       <c r="B119" t="n">
-        <v>414.0</v>
+        <v>2564.0</v>
       </c>
       <c r="C119" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="120">
@@ -4945,10 +4942,10 @@
         <v>124</v>
       </c>
       <c r="B120" t="n">
-        <v>480.0</v>
+        <v>886.0</v>
       </c>
       <c r="C120" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="121">
@@ -4956,10 +4953,10 @@
         <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>311.0</v>
+        <v>874.0</v>
       </c>
       <c r="C121" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="122">
@@ -4967,10 +4964,10 @@
         <v>126</v>
       </c>
       <c r="B122" t="n">
-        <v>1002.0</v>
+        <v>1143.0</v>
       </c>
       <c r="C122" t="n">
-        <v>24.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="123">
@@ -4978,10 +4975,10 @@
         <v>127</v>
       </c>
       <c r="B123" t="n">
-        <v>3852.0</v>
+        <v>398.0</v>
       </c>
       <c r="C123" t="n">
-        <v>69.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="124">
@@ -4989,10 +4986,10 @@
         <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>7935.0</v>
+        <v>283.0</v>
       </c>
       <c r="C124" t="n">
-        <v>104.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="125">
@@ -5000,10 +4997,10 @@
         <v>129</v>
       </c>
       <c r="B125" t="n">
-        <v>20030.0</v>
+        <v>1005.0</v>
       </c>
       <c r="C125" t="n">
-        <v>126.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="126">
@@ -5011,7 +5008,7 @@
         <v>130</v>
       </c>
       <c r="B126" t="n">
-        <v>2456.0</v>
+        <v>1247.0</v>
       </c>
       <c r="C126" t="n">
         <v>16.0</v>
@@ -5022,7 +5019,7 @@
         <v>131</v>
       </c>
       <c r="B127" t="n">
-        <v>3403.0</v>
+        <v>2335.0</v>
       </c>
       <c r="C127" t="n">
         <v>50.0</v>
@@ -5033,10 +5030,10 @@
         <v>132</v>
       </c>
       <c r="B128" t="n">
-        <v>2505.0</v>
+        <v>2159.0</v>
       </c>
       <c r="C128" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="129">
@@ -5044,10 +5041,10 @@
         <v>133</v>
       </c>
       <c r="B129" t="n">
-        <v>4771.0</v>
+        <v>1462.0</v>
       </c>
       <c r="C129" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="130">
@@ -5055,10 +5052,10 @@
         <v>134</v>
       </c>
       <c r="B130" t="n">
-        <v>3293.0</v>
+        <v>535.0</v>
       </c>
       <c r="C130" t="n">
-        <v>58.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="131">
@@ -5066,10 +5063,10 @@
         <v>135</v>
       </c>
       <c r="B131" t="n">
-        <v>5846.0</v>
+        <v>515.0</v>
       </c>
       <c r="C131" t="n">
-        <v>88.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="132">
@@ -5077,10 +5074,10 @@
         <v>136</v>
       </c>
       <c r="B132" t="n">
-        <v>2963.0</v>
+        <v>1470.0</v>
       </c>
       <c r="C132" t="n">
-        <v>17.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="133">
@@ -5088,10 +5085,10 @@
         <v>137</v>
       </c>
       <c r="B133" t="n">
-        <v>1419.0</v>
+        <v>1616.0</v>
       </c>
       <c r="C133" t="n">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="134">
@@ -5099,10 +5096,10 @@
         <v>138</v>
       </c>
       <c r="B134" t="n">
-        <v>2322.0</v>
+        <v>2097.0</v>
       </c>
       <c r="C134" t="n">
-        <v>41.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="135">
@@ -5110,10 +5107,10 @@
         <v>139</v>
       </c>
       <c r="B135" t="n">
-        <v>2551.0</v>
+        <v>1667.0</v>
       </c>
       <c r="C135" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="136">
@@ -5121,10 +5118,10 @@
         <v>140</v>
       </c>
       <c r="B136" t="n">
-        <v>3732.0</v>
+        <v>1046.0</v>
       </c>
       <c r="C136" t="n">
-        <v>42.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="137">
@@ -5132,10 +5129,10 @@
         <v>141</v>
       </c>
       <c r="B137" t="n">
-        <v>3680.0</v>
+        <v>391.0</v>
       </c>
       <c r="C137" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="138">
@@ -5143,10 +5140,10 @@
         <v>142</v>
       </c>
       <c r="B138" t="n">
-        <v>1841.0</v>
+        <v>223.0</v>
       </c>
       <c r="C138" t="n">
-        <v>36.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="139">
@@ -5154,10 +5151,10 @@
         <v>143</v>
       </c>
       <c r="B139" t="n">
-        <v>666.0</v>
+        <v>1326.0</v>
       </c>
       <c r="C139" t="n">
-        <v>9.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="140">
@@ -5165,10 +5162,10 @@
         <v>144</v>
       </c>
       <c r="B140" t="n">
-        <v>526.0</v>
+        <v>1867.0</v>
       </c>
       <c r="C140" t="n">
-        <v>8.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="141">
@@ -5176,10 +5173,10 @@
         <v>145</v>
       </c>
       <c r="B141" t="n">
-        <v>2703.0</v>
+        <v>1007.0</v>
       </c>
       <c r="C141" t="n">
-        <v>44.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="142">
@@ -5187,10 +5184,10 @@
         <v>146</v>
       </c>
       <c r="B142" t="n">
-        <v>2564.0</v>
+        <v>1225.0</v>
       </c>
       <c r="C142" t="n">
-        <v>32.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="143">
@@ -5198,10 +5195,10 @@
         <v>147</v>
       </c>
       <c r="B143" t="n">
-        <v>886.0</v>
+        <v>1433.0</v>
       </c>
       <c r="C143" t="n">
-        <v>6.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="144">
@@ -5209,10 +5206,10 @@
         <v>148</v>
       </c>
       <c r="B144" t="n">
-        <v>874.0</v>
+        <v>447.0</v>
       </c>
       <c r="C144" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="145">
@@ -5220,10 +5217,10 @@
         <v>149</v>
       </c>
       <c r="B145" t="n">
-        <v>1143.0</v>
+        <v>391.0</v>
       </c>
       <c r="C145" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="146">
@@ -5231,10 +5228,10 @@
         <v>150</v>
       </c>
       <c r="B146" t="n">
-        <v>398.0</v>
+        <v>918.0</v>
       </c>
       <c r="C146" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="147">
@@ -5242,10 +5239,10 @@
         <v>151</v>
       </c>
       <c r="B147" t="n">
-        <v>283.0</v>
+        <v>1533.0</v>
       </c>
       <c r="C147" t="n">
-        <v>2.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="148">
@@ -5253,10 +5250,10 @@
         <v>152</v>
       </c>
       <c r="B148" t="n">
-        <v>1005.0</v>
+        <v>1517.0</v>
       </c>
       <c r="C148" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="149">
@@ -5264,10 +5261,10 @@
         <v>153</v>
       </c>
       <c r="B149" t="n">
-        <v>1247.0</v>
+        <v>1020.0</v>
       </c>
       <c r="C149" t="n">
-        <v>16.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="150">
@@ -5275,10 +5272,10 @@
         <v>154</v>
       </c>
       <c r="B150" t="n">
-        <v>2335.0</v>
+        <v>957.0</v>
       </c>
       <c r="C150" t="n">
-        <v>50.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="151">
@@ -5286,10 +5283,10 @@
         <v>155</v>
       </c>
       <c r="B151" t="n">
-        <v>2159.0</v>
+        <v>373.0</v>
       </c>
       <c r="C151" t="n">
-        <v>41.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="152">
@@ -5297,10 +5294,10 @@
         <v>156</v>
       </c>
       <c r="B152" t="n">
-        <v>1462.0</v>
+        <v>225.0</v>
       </c>
       <c r="C152" t="n">
-        <v>25.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="153">
@@ -5308,10 +5305,10 @@
         <v>157</v>
       </c>
       <c r="B153" t="n">
-        <v>535.0</v>
+        <v>817.0</v>
       </c>
       <c r="C153" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="154">
@@ -5319,10 +5316,10 @@
         <v>158</v>
       </c>
       <c r="B154" t="n">
-        <v>515.0</v>
+        <v>2093.0</v>
       </c>
       <c r="C154" t="n">
-        <v>4.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="155">
@@ -5330,7 +5327,7 @@
         <v>159</v>
       </c>
       <c r="B155" t="n">
-        <v>1470.0</v>
+        <v>1886.0</v>
       </c>
       <c r="C155" t="n">
         <v>32.0</v>
@@ -5341,10 +5338,10 @@
         <v>160</v>
       </c>
       <c r="B156" t="n">
-        <v>1616.0</v>
+        <v>895.0</v>
       </c>
       <c r="C156" t="n">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="157">
@@ -5352,10 +5349,10 @@
         <v>161</v>
       </c>
       <c r="B157" t="n">
-        <v>2097.0</v>
+        <v>1164.0</v>
       </c>
       <c r="C157" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="158">
@@ -5363,10 +5360,10 @@
         <v>162</v>
       </c>
       <c r="B158" t="n">
-        <v>1667.0</v>
+        <v>495.0</v>
       </c>
       <c r="C158" t="n">
-        <v>34.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="159">
@@ -5374,10 +5371,10 @@
         <v>163</v>
       </c>
       <c r="B159" t="n">
-        <v>1046.0</v>
+        <v>285.0</v>
       </c>
       <c r="C159" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="160">
@@ -5385,10 +5382,10 @@
         <v>164</v>
       </c>
       <c r="B160" t="n">
-        <v>391.0</v>
+        <v>1147.0</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="161">
@@ -5396,10 +5393,10 @@
         <v>165</v>
       </c>
       <c r="B161" t="n">
-        <v>223.0</v>
+        <v>1640.0</v>
       </c>
       <c r="C161" t="n">
-        <v>1.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="162">
@@ -5407,10 +5404,10 @@
         <v>166</v>
       </c>
       <c r="B162" t="n">
-        <v>1326.0</v>
+        <v>760.0</v>
       </c>
       <c r="C162" t="n">
-        <v>32.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="163">
@@ -5418,10 +5415,10 @@
         <v>167</v>
       </c>
       <c r="B163" t="n">
-        <v>1867.0</v>
+        <v>626.0</v>
       </c>
       <c r="C163" t="n">
-        <v>42.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="164">
@@ -5429,10 +5426,10 @@
         <v>168</v>
       </c>
       <c r="B164" t="n">
-        <v>1007.0</v>
+        <v>622.0</v>
       </c>
       <c r="C164" t="n">
-        <v>28.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="165">
@@ -5440,10 +5437,10 @@
         <v>169</v>
       </c>
       <c r="B165" t="n">
-        <v>1225.0</v>
+        <v>305.0</v>
       </c>
       <c r="C165" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="166">
@@ -5451,10 +5448,10 @@
         <v>170</v>
       </c>
       <c r="B166" t="n">
-        <v>1433.0</v>
+        <v>179.0</v>
       </c>
       <c r="C166" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
@@ -5462,10 +5459,10 @@
         <v>171</v>
       </c>
       <c r="B167" t="n">
-        <v>447.0</v>
+        <v>2466.0</v>
       </c>
       <c r="C167" t="n">
-        <v>7.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="168">
@@ -5473,10 +5470,10 @@
         <v>172</v>
       </c>
       <c r="B168" t="n">
-        <v>391.0</v>
+        <v>7078.0</v>
       </c>
       <c r="C168" t="n">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="169">
@@ -5484,10 +5481,10 @@
         <v>173</v>
       </c>
       <c r="B169" t="n">
-        <v>918.0</v>
+        <v>4255.0</v>
       </c>
       <c r="C169" t="n">
-        <v>11.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="170">
@@ -5495,10 +5492,10 @@
         <v>174</v>
       </c>
       <c r="B170" t="n">
-        <v>1533.0</v>
+        <v>3068.0</v>
       </c>
       <c r="C170" t="n">
-        <v>44.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="171">
@@ -5506,10 +5503,10 @@
         <v>175</v>
       </c>
       <c r="B171" t="n">
-        <v>1517.0</v>
+        <v>5894.0</v>
       </c>
       <c r="C171" t="n">
-        <v>23.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="172">
@@ -5517,10 +5514,10 @@
         <v>176</v>
       </c>
       <c r="B172" t="n">
-        <v>1020.0</v>
+        <v>3971.0</v>
       </c>
       <c r="C172" t="n">
-        <v>41.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="173">
@@ -5528,10 +5525,10 @@
         <v>177</v>
       </c>
       <c r="B173" t="n">
-        <v>957.0</v>
+        <v>1140.0</v>
       </c>
       <c r="C173" t="n">
-        <v>37.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="174">
@@ -5539,10 +5536,10 @@
         <v>178</v>
       </c>
       <c r="B174" t="n">
-        <v>373.0</v>
+        <v>1628.0</v>
       </c>
       <c r="C174" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="175">
@@ -5550,10 +5547,10 @@
         <v>179</v>
       </c>
       <c r="B175" t="n">
-        <v>225.0</v>
+        <v>2595.0</v>
       </c>
       <c r="C175" t="n">
-        <v>2.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="176">
@@ -5561,10 +5558,10 @@
         <v>180</v>
       </c>
       <c r="B176" t="n">
-        <v>817.0</v>
+        <v>3527.0</v>
       </c>
       <c r="C176" t="n">
-        <v>12.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="177">
@@ -5572,10 +5569,10 @@
         <v>181</v>
       </c>
       <c r="B177" t="n">
-        <v>2093.0</v>
+        <v>1647.0</v>
       </c>
       <c r="C177" t="n">
-        <v>47.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="178">
@@ -5583,10 +5580,10 @@
         <v>182</v>
       </c>
       <c r="B178" t="n">
-        <v>1886.0</v>
+        <v>1507.0</v>
       </c>
       <c r="C178" t="n">
-        <v>32.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="179">
@@ -5594,10 +5591,10 @@
         <v>183</v>
       </c>
       <c r="B179" t="n">
-        <v>895.0</v>
+        <v>787.0</v>
       </c>
       <c r="C179" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="180">
@@ -5605,10 +5602,10 @@
         <v>184</v>
       </c>
       <c r="B180" t="n">
-        <v>1164.0</v>
+        <v>889.0</v>
       </c>
       <c r="C180" t="n">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="181">
@@ -5616,10 +5613,10 @@
         <v>185</v>
       </c>
       <c r="B181" t="n">
-        <v>495.0</v>
+        <v>1325.0</v>
       </c>
       <c r="C181" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="182">
@@ -5627,10 +5624,10 @@
         <v>186</v>
       </c>
       <c r="B182" t="n">
-        <v>285.0</v>
+        <v>1404.0</v>
       </c>
       <c r="C182" t="n">
-        <v>2.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="183">
@@ -5638,10 +5635,10 @@
         <v>187</v>
       </c>
       <c r="B183" t="n">
-        <v>1147.0</v>
+        <v>1332.0</v>
       </c>
       <c r="C183" t="n">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="184">
@@ -5649,10 +5646,10 @@
         <v>188</v>
       </c>
       <c r="B184" t="n">
-        <v>1640.0</v>
+        <v>1841.0</v>
       </c>
       <c r="C184" t="n">
-        <v>45.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="185">
@@ -5660,10 +5657,10 @@
         <v>189</v>
       </c>
       <c r="B185" t="n">
-        <v>760.0</v>
+        <v>1411.0</v>
       </c>
       <c r="C185" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="186">
@@ -5671,10 +5668,10 @@
         <v>190</v>
       </c>
       <c r="B186" t="n">
-        <v>626.0</v>
+        <v>598.0</v>
       </c>
       <c r="C186" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="187">
@@ -5682,10 +5679,10 @@
         <v>191</v>
       </c>
       <c r="B187" t="n">
-        <v>622.0</v>
+        <v>399.0</v>
       </c>
       <c r="C187" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="188">
@@ -5693,10 +5690,10 @@
         <v>192</v>
       </c>
       <c r="B188" t="n">
-        <v>305.0</v>
+        <v>6198.0</v>
       </c>
       <c r="C188" t="n">
-        <v>7.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="189">
@@ -5704,10 +5701,10 @@
         <v>193</v>
       </c>
       <c r="B189" t="n">
-        <v>179.0</v>
+        <v>3353.0</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="190">
@@ -5715,10 +5712,10 @@
         <v>194</v>
       </c>
       <c r="B190" t="n">
-        <v>2466.0</v>
+        <v>2796.0</v>
       </c>
       <c r="C190" t="n">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="191">
@@ -5726,10 +5723,10 @@
         <v>195</v>
       </c>
       <c r="B191" t="n">
-        <v>7078.0</v>
+        <v>2135.0</v>
       </c>
       <c r="C191" t="n">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="192">
@@ -5737,10 +5734,10 @@
         <v>196</v>
       </c>
       <c r="B192" t="n">
-        <v>4255.0</v>
+        <v>5816.0</v>
       </c>
       <c r="C192" t="n">
-        <v>34.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="193">
@@ -5748,10 +5745,10 @@
         <v>197</v>
       </c>
       <c r="B193" t="n">
-        <v>3068.0</v>
+        <v>5270.0</v>
       </c>
       <c r="C193" t="n">
-        <v>22.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="194">
@@ -5759,10 +5756,10 @@
         <v>198</v>
       </c>
       <c r="B194" t="n">
-        <v>5894.0</v>
+        <v>835.0</v>
       </c>
       <c r="C194" t="n">
-        <v>66.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="195">
@@ -5770,10 +5767,10 @@
         <v>199</v>
       </c>
       <c r="B195" t="n">
-        <v>3971.0</v>
+        <v>1048.0</v>
       </c>
       <c r="C195" t="n">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="196">
@@ -5781,10 +5778,10 @@
         <v>200</v>
       </c>
       <c r="B196" t="n">
-        <v>1140.0</v>
+        <v>1658.0</v>
       </c>
       <c r="C196" t="n">
-        <v>4.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="197">
@@ -5792,10 +5789,10 @@
         <v>201</v>
       </c>
       <c r="B197" t="n">
-        <v>1628.0</v>
+        <v>1833.0</v>
       </c>
       <c r="C197" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="198">
@@ -5803,10 +5800,10 @@
         <v>202</v>
       </c>
       <c r="B198" t="n">
-        <v>2595.0</v>
+        <v>11756.0</v>
       </c>
       <c r="C198" t="n">
-        <v>36.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="199">
@@ -5814,10 +5811,10 @@
         <v>203</v>
       </c>
       <c r="B199" t="n">
-        <v>3527.0</v>
+        <v>2419.0</v>
       </c>
       <c r="C199" t="n">
-        <v>56.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="200">
@@ -5825,10 +5822,10 @@
         <v>204</v>
       </c>
       <c r="B200" t="n">
-        <v>1647.0</v>
+        <v>619.0</v>
       </c>
       <c r="C200" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="201">
@@ -5836,10 +5833,10 @@
         <v>205</v>
       </c>
       <c r="B201" t="n">
-        <v>1507.0</v>
+        <v>593.0</v>
       </c>
       <c r="C201" t="n">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="202">
@@ -5847,10 +5844,10 @@
         <v>206</v>
       </c>
       <c r="B202" t="n">
-        <v>787.0</v>
+        <v>1133.0</v>
       </c>
       <c r="C202" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="203">
@@ -5858,10 +5855,10 @@
         <v>207</v>
       </c>
       <c r="B203" t="n">
-        <v>889.0</v>
+        <v>1158.0</v>
       </c>
       <c r="C203" t="n">
-        <v>4.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="204">
@@ -5869,10 +5866,10 @@
         <v>208</v>
       </c>
       <c r="B204" t="n">
-        <v>1325.0</v>
+        <v>925.0</v>
       </c>
       <c r="C204" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="205">
@@ -5880,10 +5877,10 @@
         <v>209</v>
       </c>
       <c r="B205" t="n">
-        <v>1404.0</v>
+        <v>963.0</v>
       </c>
       <c r="C205" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="206">
@@ -5891,7 +5888,7 @@
         <v>210</v>
       </c>
       <c r="B206" t="n">
-        <v>1332.0</v>
+        <v>747.0</v>
       </c>
       <c r="C206" t="n">
         <v>17.0</v>
@@ -5902,10 +5899,10 @@
         <v>211</v>
       </c>
       <c r="B207" t="n">
-        <v>1841.0</v>
+        <v>556.0</v>
       </c>
       <c r="C207" t="n">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="208">
@@ -5913,10 +5910,10 @@
         <v>212</v>
       </c>
       <c r="B208" t="n">
-        <v>1411.0</v>
+        <v>625.0</v>
       </c>
       <c r="C208" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="209">
@@ -5924,10 +5921,10 @@
         <v>213</v>
       </c>
       <c r="B209" t="n">
-        <v>598.0</v>
+        <v>2149.0</v>
       </c>
       <c r="C209" t="n">
-        <v>11.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="210">
@@ -5935,10 +5932,10 @@
         <v>214</v>
       </c>
       <c r="B210" t="n">
-        <v>399.0</v>
+        <v>993.0</v>
       </c>
       <c r="C210" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="211">
@@ -5946,10 +5943,10 @@
         <v>215</v>
       </c>
       <c r="B211" t="n">
-        <v>6198.0</v>
+        <v>3244.0</v>
       </c>
       <c r="C211" t="n">
-        <v>71.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="212">
@@ -5957,10 +5954,10 @@
         <v>216</v>
       </c>
       <c r="B212" t="n">
-        <v>3353.0</v>
+        <v>1023.0</v>
       </c>
       <c r="C212" t="n">
-        <v>46.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="213">
@@ -5968,10 +5965,10 @@
         <v>217</v>
       </c>
       <c r="B213" t="n">
-        <v>2796.0</v>
+        <v>2781.0</v>
       </c>
       <c r="C213" t="n">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="214">
@@ -5979,10 +5976,10 @@
         <v>218</v>
       </c>
       <c r="B214" t="n">
-        <v>2135.0</v>
+        <v>1096.0</v>
       </c>
       <c r="C214" t="n">
-        <v>30.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="215">
@@ -5990,10 +5987,10 @@
         <v>219</v>
       </c>
       <c r="B215" t="n">
-        <v>5816.0</v>
+        <v>727.0</v>
       </c>
       <c r="C215" t="n">
-        <v>29.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="216">
@@ -6001,10 +5998,10 @@
         <v>220</v>
       </c>
       <c r="B216" t="n">
-        <v>5270.0</v>
+        <v>1593.0</v>
       </c>
       <c r="C216" t="n">
-        <v>29.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="217">
@@ -6012,10 +6009,10 @@
         <v>221</v>
       </c>
       <c r="B217" t="n">
-        <v>835.0</v>
+        <v>1681.0</v>
       </c>
       <c r="C217" t="n">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="218">
@@ -6023,10 +6020,10 @@
         <v>222</v>
       </c>
       <c r="B218" t="n">
-        <v>1048.0</v>
+        <v>10513.0</v>
       </c>
       <c r="C218" t="n">
-        <v>19.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="219">
@@ -6034,7 +6031,7 @@
         <v>223</v>
       </c>
       <c r="B219" t="n">
-        <v>1658.0</v>
+        <v>9136.0</v>
       </c>
       <c r="C219" t="n">
         <v>31.0</v>
@@ -6045,10 +6042,10 @@
         <v>224</v>
       </c>
       <c r="B220" t="n">
-        <v>1833.0</v>
+        <v>1702.0</v>
       </c>
       <c r="C220" t="n">
-        <v>26.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="221">
@@ -6056,10 +6053,10 @@
         <v>225</v>
       </c>
       <c r="B221" t="n">
-        <v>11756.0</v>
+        <v>529.0</v>
       </c>
       <c r="C221" t="n">
-        <v>69.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="222">
@@ -6067,10 +6064,10 @@
         <v>226</v>
       </c>
       <c r="B222" t="n">
-        <v>2419.0</v>
+        <v>373.0</v>
       </c>
       <c r="C222" t="n">
-        <v>26.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="223">
@@ -6078,10 +6075,10 @@
         <v>227</v>
       </c>
       <c r="B223" t="n">
-        <v>619.0</v>
+        <v>949.0</v>
       </c>
       <c r="C223" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="224">
@@ -6089,10 +6086,10 @@
         <v>228</v>
       </c>
       <c r="B224" t="n">
-        <v>593.0</v>
+        <v>1067.0</v>
       </c>
       <c r="C224" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="225">
@@ -6100,10 +6097,10 @@
         <v>229</v>
       </c>
       <c r="B225" t="n">
-        <v>1133.0</v>
+        <v>723.0</v>
       </c>
       <c r="C225" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="226">
@@ -6111,10 +6108,10 @@
         <v>230</v>
       </c>
       <c r="B226" t="n">
-        <v>1158.0</v>
+        <v>6767.0</v>
       </c>
       <c r="C226" t="n">
-        <v>27.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="227">
@@ -6122,10 +6119,10 @@
         <v>231</v>
       </c>
       <c r="B227" t="n">
-        <v>925.0</v>
+        <v>30461.0</v>
       </c>
       <c r="C227" t="n">
-        <v>18.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="228">
@@ -6133,10 +6130,10 @@
         <v>232</v>
       </c>
       <c r="B228" t="n">
-        <v>963.0</v>
+        <v>29661.0</v>
       </c>
       <c r="C228" t="n">
-        <v>25.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="229">
@@ -6144,10 +6141,10 @@
         <v>233</v>
       </c>
       <c r="B229" t="n">
-        <v>747.0</v>
+        <v>18860.0</v>
       </c>
       <c r="C229" t="n">
-        <v>17.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="230">
@@ -6155,10 +6152,10 @@
         <v>234</v>
       </c>
       <c r="B230" t="n">
-        <v>556.0</v>
+        <v>28215.0</v>
       </c>
       <c r="C230" t="n">
-        <v>10.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="231">
@@ -6166,10 +6163,10 @@
         <v>235</v>
       </c>
       <c r="B231" t="n">
-        <v>625.0</v>
+        <v>29812.0</v>
       </c>
       <c r="C231" t="n">
-        <v>16.0</v>
+        <v>123.0</v>
       </c>
     </row>
     <row r="232">
@@ -6177,10 +6174,10 @@
         <v>236</v>
       </c>
       <c r="B232" t="n">
-        <v>2149.0</v>
+        <v>27199.0</v>
       </c>
       <c r="C232" t="n">
-        <v>42.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="233">
@@ -6188,10 +6185,10 @@
         <v>237</v>
       </c>
       <c r="B233" t="n">
-        <v>993.0</v>
+        <v>29762.0</v>
       </c>
       <c r="C233" t="n">
-        <v>17.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="234">
@@ -6199,10 +6196,10 @@
         <v>238</v>
       </c>
       <c r="B234" t="n">
-        <v>3244.0</v>
+        <v>11084.0</v>
       </c>
       <c r="C234" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="235">
@@ -6210,10 +6207,10 @@
         <v>239</v>
       </c>
       <c r="B235" t="n">
-        <v>1023.0</v>
+        <v>1180.0</v>
       </c>
       <c r="C235" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="236">
@@ -6221,10 +6218,10 @@
         <v>240</v>
       </c>
       <c r="B236" t="n">
-        <v>2781.0</v>
+        <v>1197.0</v>
       </c>
       <c r="C236" t="n">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="237">
@@ -6232,10 +6229,10 @@
         <v>241</v>
       </c>
       <c r="B237" t="n">
-        <v>1096.0</v>
+        <v>2497.0</v>
       </c>
       <c r="C237" t="n">
-        <v>9.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="238">
@@ -6243,10 +6240,10 @@
         <v>242</v>
       </c>
       <c r="B238" t="n">
-        <v>727.0</v>
+        <v>3700.0</v>
       </c>
       <c r="C238" t="n">
-        <v>2.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="239">
@@ -6254,10 +6251,10 @@
         <v>243</v>
       </c>
       <c r="B239" t="n">
-        <v>1593.0</v>
+        <v>2700.0</v>
       </c>
       <c r="C239" t="n">
-        <v>20.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="240">
@@ -6265,10 +6262,10 @@
         <v>244</v>
       </c>
       <c r="B240" t="n">
-        <v>1681.0</v>
+        <v>1939.0</v>
       </c>
       <c r="C240" t="n">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="241">
@@ -6276,10 +6273,10 @@
         <v>245</v>
       </c>
       <c r="B241" t="n">
-        <v>10513.0</v>
+        <v>2569.0</v>
       </c>
       <c r="C241" t="n">
-        <v>56.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="242">
@@ -6287,10 +6284,10 @@
         <v>246</v>
       </c>
       <c r="B242" t="n">
-        <v>9136.0</v>
+        <v>4702.0</v>
       </c>
       <c r="C242" t="n">
-        <v>31.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="243">
@@ -6298,10 +6295,10 @@
         <v>247</v>
       </c>
       <c r="B243" t="n">
-        <v>1702.0</v>
+        <v>2918.0</v>
       </c>
       <c r="C243" t="n">
-        <v>14.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="244">
@@ -6309,10 +6306,10 @@
         <v>248</v>
       </c>
       <c r="B244" t="n">
-        <v>529.0</v>
+        <v>5164.0</v>
       </c>
       <c r="C244" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="245">
@@ -6320,10 +6317,10 @@
         <v>249</v>
       </c>
       <c r="B245" t="n">
-        <v>373.0</v>
+        <v>5308.0</v>
       </c>
       <c r="C245" t="n">
-        <v>2.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="246">
@@ -6331,10 +6328,10 @@
         <v>250</v>
       </c>
       <c r="B246" t="n">
-        <v>949.0</v>
+        <v>2620.0</v>
       </c>
       <c r="C246" t="n">
-        <v>22.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="247">
@@ -6342,10 +6339,10 @@
         <v>251</v>
       </c>
       <c r="B247" t="n">
-        <v>1067.0</v>
+        <v>1807.0</v>
       </c>
       <c r="C247" t="n">
-        <v>12.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="248">
@@ -6353,10 +6350,10 @@
         <v>252</v>
       </c>
       <c r="B248" t="n">
-        <v>723.0</v>
+        <v>2853.0</v>
       </c>
       <c r="C248" t="n">
-        <v>11.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="249">
@@ -6364,10 +6361,10 @@
         <v>253</v>
       </c>
       <c r="B249" t="n">
-        <v>6767.0</v>
+        <v>1834.0</v>
       </c>
       <c r="C249" t="n">
-        <v>73.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="250">
@@ -6375,10 +6372,10 @@
         <v>254</v>
       </c>
       <c r="B250" t="n">
-        <v>30460.0</v>
+        <v>1515.0</v>
       </c>
       <c r="C250" t="n">
-        <v>124.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="251">
@@ -6386,10 +6383,10 @@
         <v>255</v>
       </c>
       <c r="B251" t="n">
-        <v>29661.0</v>
+        <v>3007.0</v>
       </c>
       <c r="C251" t="n">
-        <v>96.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="252">
@@ -6397,10 +6394,10 @@
         <v>256</v>
       </c>
       <c r="B252" t="n">
-        <v>18860.0</v>
+        <v>2796.0</v>
       </c>
       <c r="C252" t="n">
-        <v>67.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="253">
@@ -6408,10 +6405,10 @@
         <v>257</v>
       </c>
       <c r="B253" t="n">
-        <v>28215.0</v>
+        <v>1398.0</v>
       </c>
       <c r="C253" t="n">
-        <v>76.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="254">
@@ -6419,10 +6416,10 @@
         <v>258</v>
       </c>
       <c r="B254" t="n">
-        <v>29812.0</v>
+        <v>1325.0</v>
       </c>
       <c r="C254" t="n">
-        <v>123.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="255">
@@ -6430,10 +6427,10 @@
         <v>259</v>
       </c>
       <c r="B255" t="n">
-        <v>27199.0</v>
+        <v>2106.0</v>
       </c>
       <c r="C255" t="n">
-        <v>108.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="256">
@@ -6441,10 +6438,10 @@
         <v>260</v>
       </c>
       <c r="B256" t="n">
-        <v>29762.0</v>
+        <v>1403.0</v>
       </c>
       <c r="C256" t="n">
-        <v>86.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="257">
@@ -6452,10 +6449,10 @@
         <v>261</v>
       </c>
       <c r="B257" t="n">
-        <v>11084.0</v>
+        <v>1614.0</v>
       </c>
       <c r="C257" t="n">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="258">
@@ -6463,10 +6460,10 @@
         <v>262</v>
       </c>
       <c r="B258" t="n">
-        <v>1180.0</v>
+        <v>3644.0</v>
       </c>
       <c r="C258" t="n">
-        <v>15.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="259">
@@ -6474,10 +6471,10 @@
         <v>263</v>
       </c>
       <c r="B259" t="n">
-        <v>1197.0</v>
+        <v>32018.0</v>
       </c>
       <c r="C259" t="n">
-        <v>2.0</v>
+        <v>289.0</v>
       </c>
     </row>
     <row r="260">
@@ -6485,10 +6482,10 @@
         <v>264</v>
       </c>
       <c r="B260" t="n">
-        <v>2497.0</v>
+        <v>16438.0</v>
       </c>
       <c r="C260" t="n">
-        <v>32.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="261">
@@ -6496,10 +6493,10 @@
         <v>265</v>
       </c>
       <c r="B261" t="n">
-        <v>3700.0</v>
+        <v>4216.0</v>
       </c>
       <c r="C261" t="n">
-        <v>55.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="262">
@@ -6507,10 +6504,10 @@
         <v>266</v>
       </c>
       <c r="B262" t="n">
-        <v>2700.0</v>
+        <v>2616.0</v>
       </c>
       <c r="C262" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="263">
@@ -6518,10 +6515,10 @@
         <v>267</v>
       </c>
       <c r="B263" t="n">
-        <v>1939.0</v>
+        <v>1270.0</v>
       </c>
       <c r="C263" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="264">
@@ -6529,10 +6526,10 @@
         <v>268</v>
       </c>
       <c r="B264" t="n">
-        <v>2569.0</v>
+        <v>1149.0</v>
       </c>
       <c r="C264" t="n">
-        <v>33.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="265">
@@ -6540,10 +6537,10 @@
         <v>269</v>
       </c>
       <c r="B265" t="n">
-        <v>4702.0</v>
+        <v>1070.0</v>
       </c>
       <c r="C265" t="n">
-        <v>70.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="266">
@@ -6551,10 +6548,10 @@
         <v>270</v>
       </c>
       <c r="B266" t="n">
-        <v>2918.0</v>
+        <v>3452.0</v>
       </c>
       <c r="C266" t="n">
-        <v>63.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="267">
@@ -6562,10 +6559,10 @@
         <v>271</v>
       </c>
       <c r="B267" t="n">
-        <v>5163.0</v>
+        <v>1879.0</v>
       </c>
       <c r="C267" t="n">
-        <v>85.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="268">
@@ -6573,10 +6570,10 @@
         <v>272</v>
       </c>
       <c r="B268" t="n">
-        <v>5310.0</v>
+        <v>7732.0</v>
       </c>
       <c r="C268" t="n">
-        <v>105.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="269">
@@ -6584,10 +6581,10 @@
         <v>273</v>
       </c>
       <c r="B269" t="n">
-        <v>2620.0</v>
+        <v>6033.0</v>
       </c>
       <c r="C269" t="n">
-        <v>48.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="270">
@@ -6595,10 +6592,10 @@
         <v>274</v>
       </c>
       <c r="B270" t="n">
-        <v>1807.0</v>
+        <v>3775.0</v>
       </c>
       <c r="C270" t="n">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="271">
@@ -6606,10 +6603,10 @@
         <v>275</v>
       </c>
       <c r="B271" t="n">
-        <v>2853.0</v>
+        <v>7598.0</v>
       </c>
       <c r="C271" t="n">
-        <v>46.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="272">
@@ -6617,10 +6614,10 @@
         <v>276</v>
       </c>
       <c r="B272" t="n">
-        <v>1834.0</v>
+        <v>5436.0</v>
       </c>
       <c r="C272" t="n">
-        <v>20.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="273">
@@ -6628,10 +6625,10 @@
         <v>277</v>
       </c>
       <c r="B273" t="n">
-        <v>1515.0</v>
+        <v>3787.0</v>
       </c>
       <c r="C273" t="n">
-        <v>23.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="274">
@@ -6639,10 +6636,10 @@
         <v>278</v>
       </c>
       <c r="B274" t="n">
-        <v>3007.0</v>
+        <v>3498.0</v>
       </c>
       <c r="C274" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="275">
@@ -6650,10 +6647,10 @@
         <v>279</v>
       </c>
       <c r="B275" t="n">
-        <v>2796.0</v>
+        <v>3681.0</v>
       </c>
       <c r="C275" t="n">
-        <v>41.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="276">
@@ -6661,10 +6658,10 @@
         <v>280</v>
       </c>
       <c r="B276" t="n">
-        <v>1398.0</v>
+        <v>2959.0</v>
       </c>
       <c r="C276" t="n">
-        <v>13.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="277">
@@ -6672,10 +6669,10 @@
         <v>281</v>
       </c>
       <c r="B277" t="n">
-        <v>1325.0</v>
+        <v>4139.0</v>
       </c>
       <c r="C277" t="n">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="278">
@@ -6683,10 +6680,10 @@
         <v>282</v>
       </c>
       <c r="B278" t="n">
-        <v>2106.0</v>
+        <v>1682.0</v>
       </c>
       <c r="C278" t="n">
-        <v>55.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="279">
@@ -6694,10 +6691,10 @@
         <v>283</v>
       </c>
       <c r="B279" t="n">
-        <v>1403.0</v>
+        <v>2101.0</v>
       </c>
       <c r="C279" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="280">
@@ -6705,10 +6702,10 @@
         <v>284</v>
       </c>
       <c r="B280" t="n">
-        <v>1614.0</v>
+        <v>4017.0</v>
       </c>
       <c r="C280" t="n">
-        <v>41.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="281">
@@ -6716,10 +6713,10 @@
         <v>285</v>
       </c>
       <c r="B281" t="n">
-        <v>3644.0</v>
+        <v>3091.0</v>
       </c>
       <c r="C281" t="n">
-        <v>57.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="282">
@@ -6727,10 +6724,10 @@
         <v>286</v>
       </c>
       <c r="B282" t="n">
-        <v>32028.0</v>
+        <v>5190.0</v>
       </c>
       <c r="C282" t="n">
-        <v>289.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="283">
@@ -6738,10 +6735,10 @@
         <v>287</v>
       </c>
       <c r="B283" t="n">
-        <v>16437.0</v>
+        <v>3804.0</v>
       </c>
       <c r="C283" t="n">
-        <v>135.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="284">
@@ -6749,10 +6746,10 @@
         <v>288</v>
       </c>
       <c r="B284" t="n">
-        <v>4217.0</v>
+        <v>1327.0</v>
       </c>
       <c r="C284" t="n">
-        <v>85.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="285">
@@ -6760,10 +6757,10 @@
         <v>289</v>
       </c>
       <c r="B285" t="n">
-        <v>2616.0</v>
+        <v>1494.0</v>
       </c>
       <c r="C285" t="n">
-        <v>37.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="286">
@@ -6771,10 +6768,10 @@
         <v>290</v>
       </c>
       <c r="B286" t="n">
-        <v>1270.0</v>
+        <v>3569.0</v>
       </c>
       <c r="C286" t="n">
-        <v>9.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="287">
@@ -6782,10 +6779,10 @@
         <v>291</v>
       </c>
       <c r="B287" t="n">
-        <v>1149.0</v>
+        <v>3429.0</v>
       </c>
       <c r="C287" t="n">
-        <v>19.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="288">
@@ -6793,10 +6790,10 @@
         <v>292</v>
       </c>
       <c r="B288" t="n">
-        <v>1071.0</v>
+        <v>7315.0</v>
       </c>
       <c r="C288" t="n">
-        <v>14.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="289">
@@ -6804,10 +6801,10 @@
         <v>293</v>
       </c>
       <c r="B289" t="n">
-        <v>3452.0</v>
+        <v>5491.0</v>
       </c>
       <c r="C289" t="n">
-        <v>78.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="290">
@@ -6815,10 +6812,10 @@
         <v>294</v>
       </c>
       <c r="B290" t="n">
-        <v>1879.0</v>
+        <v>2563.0</v>
       </c>
       <c r="C290" t="n">
-        <v>31.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="291">
@@ -6826,10 +6823,10 @@
         <v>295</v>
       </c>
       <c r="B291" t="n">
-        <v>7735.0</v>
+        <v>914.0</v>
       </c>
       <c r="C291" t="n">
-        <v>165.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="292">
@@ -6837,10 +6834,10 @@
         <v>296</v>
       </c>
       <c r="B292" t="n">
-        <v>6037.0</v>
+        <v>760.0</v>
       </c>
       <c r="C292" t="n">
-        <v>88.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="293">
@@ -6848,7 +6845,7 @@
         <v>297</v>
       </c>
       <c r="B293" t="n">
-        <v>3775.0</v>
+        <v>3409.0</v>
       </c>
       <c r="C293" t="n">
         <v>42.0</v>
@@ -6859,10 +6856,10 @@
         <v>298</v>
       </c>
       <c r="B294" t="n">
-        <v>7598.0</v>
+        <v>4024.0</v>
       </c>
       <c r="C294" t="n">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="295">
@@ -6870,10 +6867,10 @@
         <v>299</v>
       </c>
       <c r="B295" t="n">
-        <v>5437.0</v>
+        <v>2350.0</v>
       </c>
       <c r="C295" t="n">
-        <v>54.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="296">
@@ -6881,10 +6878,10 @@
         <v>300</v>
       </c>
       <c r="B296" t="n">
-        <v>3816.0</v>
+        <v>2350.0</v>
       </c>
       <c r="C296" t="n">
-        <v>46.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="297">
@@ -6892,10 +6889,10 @@
         <v>301</v>
       </c>
       <c r="B297" t="n">
-        <v>3498.0</v>
+        <v>3043.0</v>
       </c>
       <c r="C297" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="298">
@@ -6903,10 +6900,10 @@
         <v>302</v>
       </c>
       <c r="B298" t="n">
-        <v>3681.0</v>
+        <v>1288.0</v>
       </c>
       <c r="C298" t="n">
-        <v>53.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="299">
@@ -6914,10 +6911,10 @@
         <v>303</v>
       </c>
       <c r="B299" t="n">
-        <v>2959.0</v>
+        <v>1009.0</v>
       </c>
       <c r="C299" t="n">
-        <v>48.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="300">
@@ -6925,10 +6922,10 @@
         <v>304</v>
       </c>
       <c r="B300" t="n">
-        <v>4139.0</v>
+        <v>1695.0</v>
       </c>
       <c r="C300" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="301">
@@ -6936,10 +6933,10 @@
         <v>305</v>
       </c>
       <c r="B301" t="n">
-        <v>1682.0</v>
+        <v>1698.0</v>
       </c>
       <c r="C301" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="302">
@@ -6947,10 +6944,10 @@
         <v>306</v>
       </c>
       <c r="B302" t="n">
-        <v>2097.0</v>
+        <v>2391.0</v>
       </c>
       <c r="C302" t="n">
-        <v>29.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="303">
@@ -6958,10 +6955,10 @@
         <v>307</v>
       </c>
       <c r="B303" t="n">
-        <v>4017.0</v>
+        <v>2434.0</v>
       </c>
       <c r="C303" t="n">
-        <v>57.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="304">
@@ -6969,10 +6966,10 @@
         <v>308</v>
       </c>
       <c r="B304" t="n">
-        <v>3091.0</v>
+        <v>1019.0</v>
       </c>
       <c r="C304" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="305">
@@ -6980,10 +6977,10 @@
         <v>309</v>
       </c>
       <c r="B305" t="n">
-        <v>5191.0</v>
+        <v>533.0</v>
       </c>
       <c r="C305" t="n">
-        <v>43.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="306">
@@ -6991,10 +6988,10 @@
         <v>310</v>
       </c>
       <c r="B306" t="n">
-        <v>3804.0</v>
+        <v>456.0</v>
       </c>
       <c r="C306" t="n">
-        <v>43.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="307">
@@ -7002,10 +6999,10 @@
         <v>311</v>
       </c>
       <c r="B307" t="n">
-        <v>1327.0</v>
+        <v>2163.0</v>
       </c>
       <c r="C307" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="308">
@@ -7013,10 +7010,10 @@
         <v>312</v>
       </c>
       <c r="B308" t="n">
-        <v>1494.0</v>
+        <v>1693.0</v>
       </c>
       <c r="C308" t="n">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="309">
@@ -7024,10 +7021,10 @@
         <v>313</v>
       </c>
       <c r="B309" t="n">
-        <v>3569.0</v>
+        <v>2693.0</v>
       </c>
       <c r="C309" t="n">
-        <v>52.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="310">
@@ -7035,10 +7032,10 @@
         <v>314</v>
       </c>
       <c r="B310" t="n">
-        <v>3429.0</v>
+        <v>2663.0</v>
       </c>
       <c r="C310" t="n">
-        <v>48.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="311">
@@ -7046,10 +7043,10 @@
         <v>315</v>
       </c>
       <c r="B311" t="n">
-        <v>7313.0</v>
+        <v>1286.0</v>
       </c>
       <c r="C311" t="n">
-        <v>67.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="312">
@@ -7057,10 +7054,10 @@
         <v>316</v>
       </c>
       <c r="B312" t="n">
-        <v>5492.0</v>
+        <v>355.0</v>
       </c>
       <c r="C312" t="n">
-        <v>48.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="313">
@@ -7068,10 +7065,10 @@
         <v>317</v>
       </c>
       <c r="B313" t="n">
-        <v>2563.0</v>
+        <v>395.0</v>
       </c>
       <c r="C313" t="n">
-        <v>39.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="314">
@@ -7079,10 +7076,10 @@
         <v>318</v>
       </c>
       <c r="B314" t="n">
-        <v>914.0</v>
+        <v>1268.0</v>
       </c>
       <c r="C314" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="315">
@@ -7090,10 +7087,10 @@
         <v>319</v>
       </c>
       <c r="B315" t="n">
-        <v>760.0</v>
+        <v>1704.0</v>
       </c>
       <c r="C315" t="n">
-        <v>18.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="316">
@@ -7101,10 +7098,10 @@
         <v>320</v>
       </c>
       <c r="B316" t="n">
-        <v>3409.0</v>
+        <v>1414.0</v>
       </c>
       <c r="C316" t="n">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="317">
@@ -7112,10 +7109,10 @@
         <v>321</v>
       </c>
       <c r="B317" t="n">
-        <v>4023.0</v>
+        <v>1102.0</v>
       </c>
       <c r="C317" t="n">
-        <v>52.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="318">
@@ -7123,10 +7120,10 @@
         <v>322</v>
       </c>
       <c r="B318" t="n">
-        <v>2350.0</v>
+        <v>576.0</v>
       </c>
       <c r="C318" t="n">
-        <v>66.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="319">
@@ -7134,10 +7131,10 @@
         <v>323</v>
       </c>
       <c r="B319" t="n">
-        <v>2350.0</v>
+        <v>484.0</v>
       </c>
       <c r="C319" t="n">
-        <v>77.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="320">
@@ -7145,10 +7142,10 @@
         <v>324</v>
       </c>
       <c r="B320" t="n">
-        <v>3043.0</v>
+        <v>381.0</v>
       </c>
       <c r="C320" t="n">
-        <v>51.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="321">
@@ -7156,10 +7153,10 @@
         <v>325</v>
       </c>
       <c r="B321" t="n">
-        <v>1288.0</v>
+        <v>1589.0</v>
       </c>
       <c r="C321" t="n">
-        <v>17.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="322">
@@ -7167,10 +7164,10 @@
         <v>326</v>
       </c>
       <c r="B322" t="n">
-        <v>1009.0</v>
+        <v>2068.0</v>
       </c>
       <c r="C322" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="323">
@@ -7178,10 +7175,10 @@
         <v>327</v>
       </c>
       <c r="B323" t="n">
-        <v>1694.0</v>
+        <v>2077.0</v>
       </c>
       <c r="C323" t="n">
-        <v>49.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="324">
@@ -7189,10 +7186,10 @@
         <v>328</v>
       </c>
       <c r="B324" t="n">
-        <v>1698.0</v>
+        <v>1535.0</v>
       </c>
       <c r="C324" t="n">
-        <v>50.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="325">
@@ -7200,10 +7197,10 @@
         <v>329</v>
       </c>
       <c r="B325" t="n">
-        <v>2391.0</v>
+        <v>1454.0</v>
       </c>
       <c r="C325" t="n">
-        <v>56.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="326">
@@ -7211,10 +7208,10 @@
         <v>330</v>
       </c>
       <c r="B326" t="n">
-        <v>2428.0</v>
+        <v>577.0</v>
       </c>
       <c r="C326" t="n">
-        <v>46.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="327">
@@ -7222,10 +7219,10 @@
         <v>331</v>
       </c>
       <c r="B327" t="n">
-        <v>1020.0</v>
+        <v>363.0</v>
       </c>
       <c r="C327" t="n">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="328">
@@ -7233,10 +7230,10 @@
         <v>332</v>
       </c>
       <c r="B328" t="n">
-        <v>533.0</v>
+        <v>1257.0</v>
       </c>
       <c r="C328" t="n">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="329">
@@ -7244,10 +7241,10 @@
         <v>333</v>
       </c>
       <c r="B329" t="n">
-        <v>456.0</v>
+        <v>967.0</v>
       </c>
       <c r="C329" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="330">
@@ -7255,10 +7252,10 @@
         <v>334</v>
       </c>
       <c r="B330" t="n">
-        <v>2163.0</v>
+        <v>577.0</v>
       </c>
       <c r="C330" t="n">
-        <v>36.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="331">
@@ -7266,10 +7263,10 @@
         <v>335</v>
       </c>
       <c r="B331" t="n">
-        <v>1693.0</v>
+        <v>1216.0</v>
       </c>
       <c r="C331" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="332">
@@ -7277,10 +7274,10 @@
         <v>336</v>
       </c>
       <c r="B332" t="n">
-        <v>2694.0</v>
+        <v>1121.0</v>
       </c>
       <c r="C332" t="n">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="333">
@@ -7288,10 +7285,10 @@
         <v>337</v>
       </c>
       <c r="B333" t="n">
-        <v>2662.0</v>
+        <v>613.0</v>
       </c>
       <c r="C333" t="n">
-        <v>77.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="334">
@@ -7299,10 +7296,10 @@
         <v>338</v>
       </c>
       <c r="B334" t="n">
-        <v>1286.0</v>
+        <v>549.0</v>
       </c>
       <c r="C334" t="n">
-        <v>36.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="335">
@@ -7310,10 +7307,10 @@
         <v>339</v>
       </c>
       <c r="B335" t="n">
-        <v>355.0</v>
+        <v>1349.0</v>
       </c>
       <c r="C335" t="n">
-        <v>7.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="336">
@@ -7321,10 +7318,10 @@
         <v>340</v>
       </c>
       <c r="B336" t="n">
-        <v>395.0</v>
+        <v>1071.0</v>
       </c>
       <c r="C336" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="337">
@@ -7332,10 +7329,10 @@
         <v>341</v>
       </c>
       <c r="B337" t="n">
-        <v>1268.0</v>
+        <v>1301.0</v>
       </c>
       <c r="C337" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="338">
@@ -7343,10 +7340,10 @@
         <v>342</v>
       </c>
       <c r="B338" t="n">
-        <v>1704.0</v>
+        <v>1572.0</v>
       </c>
       <c r="C338" t="n">
-        <v>62.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="339">
@@ -7354,10 +7351,10 @@
         <v>343</v>
       </c>
       <c r="B339" t="n">
-        <v>1414.0</v>
+        <v>899.0</v>
       </c>
       <c r="C339" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="340">
@@ -7365,10 +7362,10 @@
         <v>344</v>
       </c>
       <c r="B340" t="n">
-        <v>1102.0</v>
+        <v>403.0</v>
       </c>
       <c r="C340" t="n">
-        <v>31.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="341">
@@ -7376,10 +7373,10 @@
         <v>345</v>
       </c>
       <c r="B341" t="n">
-        <v>577.0</v>
+        <v>743.0</v>
       </c>
       <c r="C341" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="342">
@@ -7387,10 +7384,10 @@
         <v>346</v>
       </c>
       <c r="B342" t="n">
-        <v>484.0</v>
+        <v>1765.0</v>
       </c>
       <c r="C342" t="n">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="343">
@@ -7398,10 +7395,10 @@
         <v>347</v>
       </c>
       <c r="B343" t="n">
-        <v>381.0</v>
+        <v>1472.0</v>
       </c>
       <c r="C343" t="n">
-        <v>3.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="344">
@@ -7409,10 +7406,10 @@
         <v>348</v>
       </c>
       <c r="B344" t="n">
-        <v>1589.0</v>
+        <v>813.0</v>
       </c>
       <c r="C344" t="n">
-        <v>32.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="345">
@@ -7420,10 +7417,10 @@
         <v>349</v>
       </c>
       <c r="B345" t="n">
-        <v>2068.0</v>
+        <v>814.0</v>
       </c>
       <c r="C345" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="346">
@@ -7431,10 +7428,10 @@
         <v>350</v>
       </c>
       <c r="B346" t="n">
-        <v>2077.0</v>
+        <v>730.0</v>
       </c>
       <c r="C346" t="n">
-        <v>37.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="347">
@@ -7442,10 +7439,10 @@
         <v>351</v>
       </c>
       <c r="B347" t="n">
-        <v>1535.0</v>
+        <v>394.0</v>
       </c>
       <c r="C347" t="n">
-        <v>58.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="348">
@@ -7453,10 +7450,10 @@
         <v>352</v>
       </c>
       <c r="B348" t="n">
-        <v>1454.0</v>
+        <v>405.0</v>
       </c>
       <c r="C348" t="n">
-        <v>35.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="349">
@@ -7464,10 +7461,10 @@
         <v>353</v>
       </c>
       <c r="B349" t="n">
-        <v>577.0</v>
+        <v>630.0</v>
       </c>
       <c r="C349" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="350">
@@ -7475,10 +7472,10 @@
         <v>354</v>
       </c>
       <c r="B350" t="n">
-        <v>363.0</v>
+        <v>644.0</v>
       </c>
       <c r="C350" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="351">
@@ -7486,10 +7483,10 @@
         <v>355</v>
       </c>
       <c r="B351" t="n">
-        <v>1256.0</v>
+        <v>692.0</v>
       </c>
       <c r="C351" t="n">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="352">
@@ -7497,10 +7494,10 @@
         <v>356</v>
       </c>
       <c r="B352" t="n">
-        <v>967.0</v>
+        <v>1158.0</v>
       </c>
       <c r="C352" t="n">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="353">
@@ -7508,10 +7505,10 @@
         <v>357</v>
       </c>
       <c r="B353" t="n">
-        <v>578.0</v>
+        <v>625.0</v>
       </c>
       <c r="C353" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="354">
@@ -7519,10 +7516,10 @@
         <v>358</v>
       </c>
       <c r="B354" t="n">
-        <v>1217.0</v>
+        <v>307.0</v>
       </c>
       <c r="C354" t="n">
-        <v>40.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="355">
@@ -7530,10 +7527,10 @@
         <v>359</v>
       </c>
       <c r="B355" t="n">
-        <v>1120.0</v>
+        <v>267.0</v>
       </c>
       <c r="C355" t="n">
-        <v>31.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="356">
@@ -7541,10 +7538,10 @@
         <v>360</v>
       </c>
       <c r="B356" t="n">
-        <v>613.0</v>
+        <v>714.0</v>
       </c>
       <c r="C356" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="357">
@@ -7552,10 +7549,10 @@
         <v>361</v>
       </c>
       <c r="B357" t="n">
-        <v>549.0</v>
+        <v>894.0</v>
       </c>
       <c r="C357" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="358">
@@ -7563,10 +7560,10 @@
         <v>362</v>
       </c>
       <c r="B358" t="n">
-        <v>1350.0</v>
+        <v>1232.0</v>
       </c>
       <c r="C358" t="n">
-        <v>47.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="359">
@@ -7574,10 +7571,10 @@
         <v>363</v>
       </c>
       <c r="B359" t="n">
-        <v>1071.0</v>
+        <v>881.0</v>
       </c>
       <c r="C359" t="n">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="360">
@@ -7585,10 +7582,10 @@
         <v>364</v>
       </c>
       <c r="B360" t="n">
-        <v>1301.0</v>
+        <v>664.0</v>
       </c>
       <c r="C360" t="n">
-        <v>31.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="361">
@@ -7596,10 +7593,10 @@
         <v>365</v>
       </c>
       <c r="B361" t="n">
-        <v>1572.0</v>
+        <v>303.0</v>
       </c>
       <c r="C361" t="n">
-        <v>53.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="362">
@@ -7607,10 +7604,10 @@
         <v>366</v>
       </c>
       <c r="B362" t="n">
-        <v>899.0</v>
+        <v>338.0</v>
       </c>
       <c r="C362" t="n">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="363">
@@ -7618,10 +7615,10 @@
         <v>367</v>
       </c>
       <c r="B363" t="n">
-        <v>403.0</v>
+        <v>651.0</v>
       </c>
       <c r="C363" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="364">
@@ -7629,10 +7626,10 @@
         <v>368</v>
       </c>
       <c r="B364" t="n">
-        <v>743.0</v>
+        <v>513.0</v>
       </c>
       <c r="C364" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="365">
@@ -7640,10 +7637,10 @@
         <v>369</v>
       </c>
       <c r="B365" t="n">
-        <v>1765.0</v>
+        <v>451.0</v>
       </c>
       <c r="C365" t="n">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="366">
@@ -7651,10 +7648,10 @@
         <v>370</v>
       </c>
       <c r="B366" t="n">
-        <v>982.0</v>
+        <v>17.0</v>
       </c>
       <c r="C366" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -7711,20 +7708,20 @@
         <v>375</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C4" t="n">
-        <v>540.0</v>
+        <v>539.0</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" t="s" s="16">
         <v>375</v>
       </c>
       <c r="F4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="G4" t="n">
-        <v>195380.0</v>
+        <v>195420.0</v>
       </c>
       <c r="H4" s="17"/>
     </row>
@@ -7733,20 +7730,20 @@
         <v>376</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="C5" t="n">
-        <v>351.0</v>
+        <v>350.0</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" t="s" s="20">
         <v>376</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="G5" t="n">
-        <v>46526.0</v>
+        <v>46548.0</v>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -7755,7 +7752,7 @@
         <v>377</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C6" t="n">
         <v>288.0</v>
@@ -7765,10 +7762,10 @@
         <v>378</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="G6" t="n">
-        <v>28276.0</v>
+        <v>28279.0</v>
       </c>
       <c r="H6" s="25"/>
     </row>
@@ -7777,7 +7774,7 @@
         <v>379</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C7" t="n">
         <v>191.0</v>
@@ -7787,10 +7784,10 @@
         <v>380</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="G7" t="n">
-        <v>26088.0</v>
+        <v>26137.0</v>
       </c>
       <c r="H7" s="29"/>
     </row>
@@ -7799,7 +7796,7 @@
         <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C8" t="n">
         <v>184.0</v>
@@ -7809,10 +7806,10 @@
         <v>381</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>24090.0</v>
+        <v>24092.0</v>
       </c>
       <c r="H8" s="33"/>
     </row>
@@ -7821,20 +7818,20 @@
         <v>382</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>151.0</v>
+        <v>150.0</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" t="s" s="36">
         <v>383</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="G9" t="n">
-        <v>19978.0</v>
+        <v>19979.0</v>
       </c>
       <c r="H9" s="37"/>
     </row>
@@ -7843,7 +7840,7 @@
         <v>384</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C10" t="n">
         <v>138.0</v>
@@ -7853,10 +7850,10 @@
         <v>377</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="G10" t="n">
-        <v>18860.0</v>
+        <v>18880.0</v>
       </c>
       <c r="H10" s="41"/>
     </row>
@@ -7865,17 +7862,17 @@
         <v>385</v>
       </c>
       <c r="B11" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="C11" t="n">
-        <v>124.0</v>
+        <v>138.0</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" t="s" s="44">
         <v>386</v>
       </c>
       <c r="F11" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G11" t="n">
         <v>17974.0</v>
@@ -7887,7 +7884,7 @@
         <v>387</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C12" t="n">
         <v>121.0</v>
@@ -7897,7 +7894,7 @@
         <v>388</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="G12" t="n">
         <v>12932.0</v>
@@ -7909,7 +7906,7 @@
         <v>389</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="C13" t="n">
         <v>113.0</v>
@@ -7919,7 +7916,7 @@
         <v>382</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
         <v>11619.0</v>
@@ -7931,7 +7928,7 @@
         <v>390</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C14" t="n">
         <v>108.0</v>
@@ -7941,10 +7938,10 @@
         <v>391</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="G14" t="n">
-        <v>11413.0</v>
+        <v>11415.0</v>
       </c>
       <c r="H14" s="57"/>
     </row>
@@ -7953,7 +7950,7 @@
         <v>392</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C15" t="n">
         <v>105.0</v>
@@ -7963,10 +7960,10 @@
         <v>379</v>
       </c>
       <c r="F15" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="G15" t="n">
-        <v>11049.0</v>
+        <v>11043.0</v>
       </c>
       <c r="H15" s="61"/>
     </row>
@@ -7975,7 +7972,7 @@
         <v>380</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C16" t="n">
         <v>101.0</v>
@@ -7985,10 +7982,10 @@
         <v>393</v>
       </c>
       <c r="F16" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="G16" t="n">
-        <v>10937.0</v>
+        <v>10977.0</v>
       </c>
       <c r="H16" s="65"/>
     </row>
@@ -7997,7 +7994,7 @@
         <v>394</v>
       </c>
       <c r="B17" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="C17" t="n">
         <v>100.0</v>
@@ -8007,10 +8004,10 @@
         <v>395</v>
       </c>
       <c r="F17" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="G17" t="n">
-        <v>10819.0</v>
+        <v>10821.0</v>
       </c>
       <c r="H17" s="69"/>
     </row>
@@ -8019,7 +8016,7 @@
         <v>396</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C18" t="n">
         <v>94.0</v>
@@ -8029,10 +8026,10 @@
         <v>392</v>
       </c>
       <c r="F18" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="G18" t="n">
-        <v>10533.0</v>
+        <v>10538.0</v>
       </c>
       <c r="H18" s="73"/>
     </row>
@@ -8041,7 +8038,7 @@
         <v>397</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="C19" t="n">
         <v>92.0</v>
@@ -8051,7 +8048,7 @@
         <v>398</v>
       </c>
       <c r="F19" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="G19" t="n">
         <v>9492.0</v>
@@ -8063,7 +8060,7 @@
         <v>399</v>
       </c>
       <c r="B20" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C20" t="n">
         <v>89.0</v>
@@ -8073,7 +8070,7 @@
         <v>400</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G20" t="n">
         <v>8679.0</v>
@@ -8085,7 +8082,7 @@
         <v>400</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C21" t="n">
         <v>84.0</v>
@@ -8095,10 +8092,10 @@
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="G21" t="n">
-        <v>7840.0</v>
+        <v>7842.0</v>
       </c>
       <c r="H21" s="85"/>
     </row>
@@ -8107,7 +8104,7 @@
         <v>381</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C22" t="n">
         <v>83.0</v>
@@ -8117,10 +8114,10 @@
         <v>401</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="G22" t="n">
-        <v>7410.0</v>
+        <v>7411.0</v>
       </c>
       <c r="H22" s="89"/>
     </row>
@@ -8129,7 +8126,7 @@
         <v>383</v>
       </c>
       <c r="B23" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C23" t="n">
         <v>77.0</v>
@@ -8139,10 +8136,10 @@
         <v>390</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="G23" t="n">
-        <v>6904.0</v>
+        <v>6908.0</v>
       </c>
       <c r="H23" s="93"/>
     </row>
@@ -8151,17 +8148,17 @@
         <v>402</v>
       </c>
       <c r="B24" t="s">
-        <v>282</v>
+        <v>143</v>
       </c>
       <c r="C24" t="n">
-        <v>74.0</v>
+        <v>73.0</v>
       </c>
       <c r="D24" s="95"/>
       <c r="E24" t="s" s="96">
         <v>399</v>
       </c>
       <c r="F24" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="G24" t="n">
         <v>6538.0</v>
@@ -8173,20 +8170,20 @@
         <v>403</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
       <c r="C25" t="n">
-        <v>73.0</v>
+        <v>72.0</v>
       </c>
       <c r="D25" s="99"/>
       <c r="E25" t="s" s="100">
         <v>394</v>
       </c>
       <c r="F25" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="G25" t="n">
-        <v>6407.0</v>
+        <v>6412.0</v>
       </c>
       <c r="H25" s="101"/>
     </row>
@@ -8195,7 +8192,7 @@
         <v>388</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C26" t="n">
         <v>71.0</v>
@@ -8205,10 +8202,10 @@
         <v>389</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="G26" t="n">
-        <v>4798.0</v>
+        <v>4800.0</v>
       </c>
       <c r="H26" s="105"/>
     </row>
@@ -8217,7 +8214,7 @@
         <v>404</v>
       </c>
       <c r="B27" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C27" t="n">
         <v>68.0</v>
@@ -8227,10 +8224,10 @@
         <v>405</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="G27" t="n">
-        <v>4789.0</v>
+        <v>4797.0</v>
       </c>
       <c r="H27" s="109"/>
     </row>
@@ -8239,7 +8236,7 @@
         <v>406</v>
       </c>
       <c r="B28" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="C28" t="n">
         <v>65.0</v>
@@ -8249,63 +8246,63 @@
         <v>407</v>
       </c>
       <c r="F28" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="G28" t="n">
-        <v>4690.0</v>
+        <v>4692.0</v>
       </c>
       <c r="H28" s="113"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="114">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>342</v>
       </c>
       <c r="C29" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="D29" s="115"/>
       <c r="E29" t="s" s="116">
         <v>384</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="G29" t="n">
-        <v>4498.0</v>
+        <v>4499.0</v>
       </c>
       <c r="H29" s="117"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="118">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C30" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="D30" s="119"/>
       <c r="E30" t="s" s="120">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G30" t="n">
-        <v>4387.0</v>
+        <v>4391.0</v>
       </c>
       <c r="H30" s="121"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="122">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
+        <v>69</v>
       </c>
       <c r="C31" t="n">
         <v>62.0</v>
@@ -8315,10 +8312,10 @@
         <v>410</v>
       </c>
       <c r="F31" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="G31" t="n">
-        <v>4340.0</v>
+        <v>4344.0</v>
       </c>
       <c r="H31" s="125"/>
     </row>
@@ -8327,20 +8324,20 @@
         <v>411</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>299</v>
       </c>
       <c r="C32" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="D32" s="127"/>
       <c r="E32" t="s" s="128">
         <v>412</v>
       </c>
       <c r="F32" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="G32" t="n">
-        <v>4027.0</v>
+        <v>4032.0</v>
       </c>
       <c r="H32" s="129"/>
     </row>
@@ -8349,61 +8346,61 @@
         <v>413</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C33" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="D33" s="131"/>
       <c r="E33" t="s" s="132">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F33" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="G33" t="n">
-        <v>3975.0</v>
+        <v>3977.0</v>
       </c>
       <c r="H33" s="133"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="134">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B34" t="s">
-        <v>309</v>
+        <v>131</v>
       </c>
       <c r="C34" t="n">
         <v>60.0</v>
       </c>
       <c r="D34" s="135"/>
       <c r="E34" t="s" s="136">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F34" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="G34" t="n">
-        <v>3677.0</v>
+        <v>3686.0</v>
       </c>
       <c r="H34" s="137"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="138">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C35" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="D35" s="139"/>
       <c r="E35" t="s" s="140">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="G35" t="n">
         <v>3607.0</v>
@@ -8412,23 +8409,23 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="142">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B36" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C36" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="D36" s="143"/>
       <c r="E36" t="s" s="144">
         <v>396</v>
       </c>
       <c r="F36" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="G36" t="n">
-        <v>3455.0</v>
+        <v>3458.0</v>
       </c>
       <c r="H36" s="145"/>
     </row>
@@ -8437,193 +8434,193 @@
         <v>417</v>
       </c>
       <c r="B37" t="s">
-        <v>365</v>
+        <v>241</v>
       </c>
       <c r="C37" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="D37" s="147"/>
       <c r="E37" t="s" s="148">
         <v>418</v>
       </c>
       <c r="F37" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="G37" t="n">
-        <v>3442.0</v>
+        <v>3443.0</v>
       </c>
       <c r="H37" s="149"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="150">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C38" t="n">
-        <v>53.0</v>
+        <v>57.0</v>
       </c>
       <c r="D38" s="151"/>
       <c r="E38" t="s" s="152">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="G38" t="n">
-        <v>3408.0</v>
+        <v>3409.0</v>
       </c>
       <c r="H38" s="153"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="154">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="C39" t="n">
-        <v>52.0</v>
+        <v>56.0</v>
       </c>
       <c r="D39" s="155"/>
       <c r="E39" t="s" s="156">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F39" t="s">
-        <v>264</v>
+        <v>326</v>
       </c>
       <c r="G39" t="n">
-        <v>3302.0</v>
+        <v>3347.0</v>
       </c>
       <c r="H39" s="157"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="158">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="C40" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="D40" s="159"/>
       <c r="E40" t="s" s="160">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="F40" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="G40" t="n">
-        <v>3118.0</v>
+        <v>3302.0</v>
       </c>
       <c r="H40" s="161"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="162">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="C41" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="D41" s="163"/>
       <c r="E41" t="s" s="164">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="F41" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="G41" t="n">
-        <v>3114.0</v>
+        <v>3119.0</v>
       </c>
       <c r="H41" s="165"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="166">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="B42" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C42" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="D42" s="167"/>
       <c r="E42" t="s" s="168">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F42" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="G42" t="n">
-        <v>3107.0</v>
+        <v>3117.0</v>
       </c>
       <c r="H42" s="169"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="170">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="B43" t="s">
-        <v>315</v>
+        <v>122</v>
       </c>
       <c r="C43" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="D43" s="171"/>
       <c r="E43" t="s" s="172">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F43" t="s">
-        <v>349</v>
+        <v>200</v>
       </c>
       <c r="G43" t="n">
-        <v>3046.0</v>
+        <v>3107.0</v>
       </c>
       <c r="H43" s="173"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="174">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B44" t="s">
-        <v>328</v>
+        <v>180</v>
       </c>
       <c r="C44" t="n">
         <v>50.0</v>
       </c>
       <c r="D44" s="175"/>
       <c r="E44" t="s" s="176">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="G44" t="n">
-        <v>3040.0</v>
+        <v>3041.0</v>
       </c>
       <c r="H44" s="177"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="178">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>292</v>
       </c>
       <c r="C45" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="D45" s="179"/>
       <c r="E45" t="s" s="180">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F45" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="G45" t="n">
         <v>3034.0</v>
@@ -8632,20 +8629,20 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="182">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B46" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="C46" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="D46" s="183"/>
       <c r="E46" t="s" s="184">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G46" t="n">
         <v>3007.0</v>
@@ -8654,20 +8651,20 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="186">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C47" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="D47" s="187"/>
       <c r="E47" t="s" s="188">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F47" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="G47" t="n">
         <v>2905.0</v>
@@ -8676,10 +8673,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="190">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="C48" t="n">
         <v>45.0</v>
@@ -8689,98 +8686,98 @@
         <v>427</v>
       </c>
       <c r="F48" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="G48" t="n">
-        <v>2884.0</v>
+        <v>2888.0</v>
       </c>
       <c r="H48" s="193"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="194">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="B49" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="C49" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="D49" s="195"/>
       <c r="E49" t="s" s="196">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="G49" t="n">
-        <v>2840.0</v>
+        <v>2818.0</v>
       </c>
       <c r="H49" s="197"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="198">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="C50" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="D50" s="199"/>
       <c r="E50" t="s" s="200">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="G50" t="n">
-        <v>2813.0</v>
+        <v>2778.0</v>
       </c>
       <c r="H50" s="201"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="202">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="C51" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="D51" s="203"/>
       <c r="E51" t="s" s="204">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F51" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="G51" t="n">
-        <v>2778.0</v>
+        <v>2706.0</v>
       </c>
       <c r="H51" s="205"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="206">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="C52" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="D52" s="207"/>
       <c r="E52" t="s" s="208">
         <v>433</v>
       </c>
       <c r="F52" t="s">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c r="G52" t="n">
-        <v>2700.0</v>
+        <v>2698.0</v>
       </c>
       <c r="H52" s="209"/>
     </row>
@@ -8789,20 +8786,20 @@
         <v>434</v>
       </c>
       <c r="B53" t="s">
-        <v>250</v>
+        <v>7</v>
       </c>
       <c r="C53" t="n">
         <v>43.0</v>
       </c>
       <c r="D53" s="211"/>
       <c r="E53" t="s" s="212">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="F53" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="G53" t="n">
-        <v>2696.0</v>
+        <v>2629.0</v>
       </c>
       <c r="H53" s="213"/>
     </row>
@@ -8927,10 +8924,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="214">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B1" t="n" s="215">
-        <v>12861.0</v>
+        <v>12955.0</v>
       </c>
     </row>
     <row r="2"/>
@@ -8939,7 +8936,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="217">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4">
@@ -8955,7 +8952,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n" s="219">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -8963,7 +8960,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n" s="220">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -8979,7 +8976,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n" s="222">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -8987,7 +8984,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="n" s="223">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -8995,7 +8992,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="n" s="224">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -9003,7 +9000,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="n" s="225">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -9011,7 +9008,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="n" s="226">
-        <v>1.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="13">
@@ -9027,7 +9024,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="n" s="228">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -9035,7 +9032,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="n" s="229">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -9043,7 +9040,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="n" s="230">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -9051,7 +9048,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="n" s="231">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -9059,7 +9056,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="n" s="232">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -9067,7 +9064,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="n" s="233">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -9075,7 +9072,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="n" s="234">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -9083,7 +9080,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="n" s="235">
-        <v>2.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="22">
@@ -9091,7 +9088,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="n" s="236">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="23">
@@ -9099,7 +9096,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="n" s="237">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
@@ -9107,7 +9104,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="n" s="238">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -9115,7 +9112,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="n" s="239">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -9123,7 +9120,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="n" s="240">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
@@ -9131,7 +9128,7 @@
         <v>29</v>
       </c>
       <c r="B27" t="n" s="241">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
@@ -9139,7 +9136,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="n" s="242">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -9147,7 +9144,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="n" s="243">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="30">
@@ -9155,7 +9152,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="n" s="244">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="31">
@@ -9163,7 +9160,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="n" s="245">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
@@ -9171,7 +9168,7 @@
         <v>34</v>
       </c>
       <c r="B32" t="n" s="246">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
@@ -9179,7 +9176,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="n" s="247">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
@@ -9187,7 +9184,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="n" s="248">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -9195,7 +9192,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="n" s="249">
-        <v>135.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="36">
@@ -9211,7 +9208,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="n" s="251">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -9219,7 +9216,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="n" s="252">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="39">
@@ -9227,7 +9224,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="n" s="253">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="40">
@@ -9235,7 +9232,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="n" s="254">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
@@ -9243,7 +9240,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="n" s="255">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="42">
@@ -9251,7 +9248,7 @@
         <v>44</v>
       </c>
       <c r="B42" t="n" s="256">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
@@ -9259,7 +9256,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="n" s="257">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="44">
@@ -9267,7 +9264,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="n" s="258">
-        <v>27.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="45">
@@ -9275,7 +9272,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="n" s="259">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -9283,7 +9280,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="n" s="260">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="47">
@@ -9291,7 +9288,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="n" s="261">
-        <v>2.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="48">
@@ -9299,7 +9296,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="n" s="262">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
@@ -9307,7 +9304,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="n" s="263">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -9315,7 +9312,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="n" s="264">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="51">
@@ -9323,7 +9320,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="n" s="265">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="52">
@@ -9331,7 +9328,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="n" s="266">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -9339,7 +9336,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="n" s="267">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
@@ -9347,7 +9344,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="n" s="268">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
@@ -9355,7 +9352,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="n" s="269">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="56">
@@ -9363,7 +9360,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="n" s="270">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="57">
@@ -9371,7 +9368,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="n" s="271">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
@@ -9379,7 +9376,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="n" s="272">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="59">
@@ -9387,7 +9384,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="n" s="273">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
@@ -9395,7 +9392,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="n" s="274">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="61">
@@ -9403,7 +9400,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="n" s="275">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="62">
@@ -9411,7 +9408,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="n" s="276">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="63">
@@ -9419,7 +9416,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="n" s="277">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
@@ -9427,7 +9424,7 @@
         <v>66</v>
       </c>
       <c r="B64" t="n" s="278">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="65">
@@ -9435,7 +9432,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="n" s="279">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="66">
@@ -9443,7 +9440,7 @@
         <v>68</v>
       </c>
       <c r="B66" t="n" s="280">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="67">
@@ -9451,7 +9448,7 @@
         <v>69</v>
       </c>
       <c r="B67" t="n" s="281">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="68">
@@ -9459,7 +9456,7 @@
         <v>70</v>
       </c>
       <c r="B68" t="n" s="282">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="69">
@@ -9467,7 +9464,7 @@
         <v>71</v>
       </c>
       <c r="B69" t="n" s="283">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="70">
@@ -9475,7 +9472,7 @@
         <v>72</v>
       </c>
       <c r="B70" t="n" s="284">
-        <v>27.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
@@ -9483,7 +9480,7 @@
         <v>73</v>
       </c>
       <c r="B71" t="n" s="285">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="72">
@@ -9491,7 +9488,7 @@
         <v>74</v>
       </c>
       <c r="B72" t="n" s="286">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="73">
@@ -9499,7 +9496,7 @@
         <v>75</v>
       </c>
       <c r="B73" t="n" s="287">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="74">
@@ -9507,7 +9504,7 @@
         <v>76</v>
       </c>
       <c r="B74" t="n" s="288">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="75">
@@ -9515,7 +9512,7 @@
         <v>77</v>
       </c>
       <c r="B75" t="n" s="289">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="76">
@@ -9523,7 +9520,7 @@
         <v>78</v>
       </c>
       <c r="B76" t="n" s="290">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="77">
@@ -9531,7 +9528,7 @@
         <v>79</v>
       </c>
       <c r="B77" t="n" s="291">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="78">
@@ -9539,7 +9536,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="n" s="292">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="79">
@@ -9547,7 +9544,7 @@
         <v>81</v>
       </c>
       <c r="B79" t="n" s="293">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="80">
@@ -9555,7 +9552,7 @@
         <v>82</v>
       </c>
       <c r="B80" t="n" s="294">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -9571,7 +9568,7 @@
         <v>84</v>
       </c>
       <c r="B82" t="n" s="296">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="83">
@@ -9579,7 +9576,7 @@
         <v>85</v>
       </c>
       <c r="B83" t="n" s="297">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="84">
@@ -9587,7 +9584,7 @@
         <v>86</v>
       </c>
       <c r="B84" t="n" s="298">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="85">
@@ -9595,7 +9592,7 @@
         <v>87</v>
       </c>
       <c r="B85" t="n" s="299">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="86">
@@ -9603,7 +9600,7 @@
         <v>88</v>
       </c>
       <c r="B86" t="n" s="300">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="87">
@@ -9611,7 +9608,7 @@
         <v>89</v>
       </c>
       <c r="B87" t="n" s="301">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="88">
@@ -9627,7 +9624,7 @@
         <v>91</v>
       </c>
       <c r="B89" t="n" s="303">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="90">
@@ -9635,7 +9632,7 @@
         <v>92</v>
       </c>
       <c r="B90" t="n" s="304">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
@@ -9643,7 +9640,7 @@
         <v>93</v>
       </c>
       <c r="B91" t="n" s="305">
-        <v>48.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="92">
@@ -9651,7 +9648,7 @@
         <v>94</v>
       </c>
       <c r="B92" t="n" s="306">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="93">
@@ -9659,7 +9656,7 @@
         <v>95</v>
       </c>
       <c r="B93" t="n" s="307">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="94">
@@ -9667,7 +9664,7 @@
         <v>96</v>
       </c>
       <c r="B94" t="n" s="308">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="95">
@@ -9675,7 +9672,7 @@
         <v>97</v>
       </c>
       <c r="B95" t="n" s="309">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="96">
@@ -9683,7 +9680,7 @@
         <v>98</v>
       </c>
       <c r="B96" t="n" s="310">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="97">
@@ -9691,7 +9688,7 @@
         <v>99</v>
       </c>
       <c r="B97" t="n" s="311">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="98">
@@ -9699,7 +9696,7 @@
         <v>100</v>
       </c>
       <c r="B98" t="n" s="312">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="99">
@@ -9707,7 +9704,7 @@
         <v>101</v>
       </c>
       <c r="B99" t="n" s="313">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="100">
@@ -9715,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B100" t="n" s="314">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="101">
@@ -9723,7 +9720,7 @@
         <v>103</v>
       </c>
       <c r="B101" t="n" s="315">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="102">
@@ -9731,7 +9728,7 @@
         <v>104</v>
       </c>
       <c r="B102" t="n" s="316">
-        <v>4.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="103">
@@ -9739,7 +9736,7 @@
         <v>105</v>
       </c>
       <c r="B103" t="n" s="317">
-        <v>1.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="104">
@@ -9747,7 +9744,7 @@
         <v>106</v>
       </c>
       <c r="B104" t="n" s="318">
-        <v>5.0</v>
+        <v>161.0</v>
       </c>
     </row>
     <row r="105">
@@ -9755,7 +9752,7 @@
         <v>107</v>
       </c>
       <c r="B105" t="n" s="319">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="106">
@@ -9763,7 +9760,7 @@
         <v>108</v>
       </c>
       <c r="B106" t="n" s="320">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="107">
@@ -9771,7 +9768,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="n" s="321">
-        <v>3.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="108">
@@ -9779,7 +9776,7 @@
         <v>110</v>
       </c>
       <c r="B108" t="n" s="322">
-        <v>5.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="109">
@@ -9787,7 +9784,7 @@
         <v>111</v>
       </c>
       <c r="B109" t="n" s="323">
-        <v>15.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="110">
@@ -9795,7 +9792,7 @@
         <v>112</v>
       </c>
       <c r="B110" t="n" s="324">
-        <v>9.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="111">
@@ -9803,7 +9800,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="n" s="325">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="112">
@@ -9811,7 +9808,7 @@
         <v>114</v>
       </c>
       <c r="B112" t="n" s="326">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="113">
@@ -9819,7 +9816,7 @@
         <v>115</v>
       </c>
       <c r="B113" t="n" s="327">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="114">
@@ -9827,7 +9824,7 @@
         <v>116</v>
       </c>
       <c r="B114" t="n" s="328">
-        <v>8.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="115">
@@ -9835,7 +9832,7 @@
         <v>117</v>
       </c>
       <c r="B115" t="n" s="329">
-        <v>10.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="116">
@@ -9843,7 +9840,7 @@
         <v>118</v>
       </c>
       <c r="B116" t="n" s="330">
-        <v>9.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="117">
@@ -9851,7 +9848,7 @@
         <v>119</v>
       </c>
       <c r="B117" t="n" s="331">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="118">
@@ -9859,7 +9856,7 @@
         <v>120</v>
       </c>
       <c r="B118" t="n" s="332">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="119">
@@ -9867,7 +9864,7 @@
         <v>121</v>
       </c>
       <c r="B119" t="n" s="333">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="120">
@@ -9875,7 +9872,7 @@
         <v>122</v>
       </c>
       <c r="B120" t="n" s="334">
-        <v>4.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="121">
@@ -9883,7 +9880,7 @@
         <v>123</v>
       </c>
       <c r="B121" t="n" s="335">
-        <v>5.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="122">
@@ -9891,7 +9888,7 @@
         <v>124</v>
       </c>
       <c r="B122" t="n" s="336">
-        <v>1.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="123">
@@ -9899,7 +9896,7 @@
         <v>125</v>
       </c>
       <c r="B123" t="n" s="337">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="124">
@@ -9907,7 +9904,7 @@
         <v>126</v>
       </c>
       <c r="B124" t="n" s="338">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="125">
@@ -9915,7 +9912,7 @@
         <v>127</v>
       </c>
       <c r="B125" t="n" s="339">
-        <v>28.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="126">
@@ -9923,7 +9920,7 @@
         <v>128</v>
       </c>
       <c r="B126" t="n" s="340">
-        <v>48.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="127">
@@ -9931,7 +9928,7 @@
         <v>129</v>
       </c>
       <c r="B127" t="n" s="341">
-        <v>161.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="128">
@@ -9939,7 +9936,7 @@
         <v>130</v>
       </c>
       <c r="B128" t="n" s="342">
-        <v>14.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="129">
@@ -9947,7 +9944,7 @@
         <v>131</v>
       </c>
       <c r="B129" t="n" s="343">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="130">
@@ -9955,7 +9952,7 @@
         <v>132</v>
       </c>
       <c r="B130" t="n" s="344">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="131">
@@ -9963,7 +9960,7 @@
         <v>133</v>
       </c>
       <c r="B131" t="n" s="345">
-        <v>55.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="132">
@@ -9971,7 +9968,7 @@
         <v>134</v>
       </c>
       <c r="B132" t="n" s="346">
-        <v>37.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="133">
@@ -9979,7 +9976,7 @@
         <v>135</v>
       </c>
       <c r="B133" t="n" s="347">
-        <v>80.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="134">
@@ -9987,7 +9984,7 @@
         <v>136</v>
       </c>
       <c r="B134" t="n" s="348">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="135">
@@ -9995,7 +9992,7 @@
         <v>137</v>
       </c>
       <c r="B135" t="n" s="349">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="136">
@@ -10003,7 +10000,7 @@
         <v>138</v>
       </c>
       <c r="B136" t="n" s="350">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="137">
@@ -10011,7 +10008,7 @@
         <v>139</v>
       </c>
       <c r="B137" t="n" s="351">
-        <v>79.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="138">
@@ -10019,7 +10016,7 @@
         <v>140</v>
       </c>
       <c r="B138" t="n" s="352">
-        <v>47.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="139">
@@ -10027,7 +10024,7 @@
         <v>141</v>
       </c>
       <c r="B139" t="n" s="353">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="140">
@@ -10035,7 +10032,7 @@
         <v>142</v>
       </c>
       <c r="B140" t="n" s="354">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="141">
@@ -10043,7 +10040,7 @@
         <v>143</v>
       </c>
       <c r="B141" t="n" s="355">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="142">
@@ -10051,7 +10048,7 @@
         <v>144</v>
       </c>
       <c r="B142" t="n" s="356">
-        <v>4.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="143">
@@ -10059,7 +10056,7 @@
         <v>145</v>
       </c>
       <c r="B143" t="n" s="357">
-        <v>47.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="144">
@@ -10067,7 +10064,7 @@
         <v>146</v>
       </c>
       <c r="B144" t="n" s="358">
-        <v>26.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="145">
@@ -10075,7 +10072,7 @@
         <v>147</v>
       </c>
       <c r="B145" t="n" s="359">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="146">
@@ -10083,7 +10080,7 @@
         <v>148</v>
       </c>
       <c r="B146" t="n" s="360">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="147">
@@ -10091,7 +10088,7 @@
         <v>149</v>
       </c>
       <c r="B147" t="n" s="361">
-        <v>20.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="148">
@@ -10099,7 +10096,7 @@
         <v>150</v>
       </c>
       <c r="B148" t="n" s="362">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="149">
@@ -10107,7 +10104,7 @@
         <v>151</v>
       </c>
       <c r="B149" t="n" s="363">
-        <v>2.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="150">
@@ -10115,7 +10112,7 @@
         <v>152</v>
       </c>
       <c r="B150" t="n" s="364">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="151">
@@ -10123,7 +10120,7 @@
         <v>153</v>
       </c>
       <c r="B151" t="n" s="365">
-        <v>77.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="152">
@@ -10131,7 +10128,7 @@
         <v>154</v>
       </c>
       <c r="B152" t="n" s="366">
-        <v>60.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="153">
@@ -10139,7 +10136,7 @@
         <v>155</v>
       </c>
       <c r="B153" t="n" s="367">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="154">
@@ -10147,7 +10144,7 @@
         <v>156</v>
       </c>
       <c r="B154" t="n" s="368">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="155">
@@ -10155,7 +10152,7 @@
         <v>157</v>
       </c>
       <c r="B155" t="n" s="369">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="156">
@@ -10163,7 +10160,7 @@
         <v>158</v>
       </c>
       <c r="B156" t="n" s="370">
-        <v>6.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="157">
@@ -10171,7 +10168,7 @@
         <v>159</v>
       </c>
       <c r="B157" t="n" s="371">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="158">
@@ -10179,7 +10176,7 @@
         <v>160</v>
       </c>
       <c r="B158" t="n" s="372">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="159">
@@ -10187,7 +10184,7 @@
         <v>161</v>
       </c>
       <c r="B159" t="n" s="373">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="160">
@@ -10195,7 +10192,7 @@
         <v>162</v>
       </c>
       <c r="B160" t="n" s="374">
-        <v>49.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="161">
@@ -10203,7 +10200,7 @@
         <v>163</v>
       </c>
       <c r="B161" t="n" s="375">
-        <v>33.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="162">
@@ -10211,7 +10208,7 @@
         <v>164</v>
       </c>
       <c r="B162" t="n" s="376">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="163">
@@ -10219,7 +10216,7 @@
         <v>165</v>
       </c>
       <c r="B163" t="n" s="377">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="164">
@@ -10227,7 +10224,7 @@
         <v>166</v>
       </c>
       <c r="B164" t="n" s="378">
-        <v>19.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="165">
@@ -10235,7 +10232,7 @@
         <v>167</v>
       </c>
       <c r="B165" t="n" s="379">
-        <v>43.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="166">
@@ -10243,7 +10240,7 @@
         <v>168</v>
       </c>
       <c r="B166" t="n" s="380">
-        <v>61.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="167">
@@ -10251,7 +10248,7 @@
         <v>169</v>
       </c>
       <c r="B167" t="n" s="381">
-        <v>39.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="168">
@@ -10259,7 +10256,7 @@
         <v>170</v>
       </c>
       <c r="B168" t="n" s="382">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="169">
@@ -10267,7 +10264,7 @@
         <v>171</v>
       </c>
       <c r="B169" t="n" s="383">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="170">
@@ -10275,7 +10272,7 @@
         <v>172</v>
       </c>
       <c r="B170" t="n" s="384">
-        <v>4.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="171">
@@ -10283,7 +10280,7 @@
         <v>173</v>
       </c>
       <c r="B171" t="n" s="385">
-        <v>21.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="172">
@@ -10291,7 +10288,7 @@
         <v>174</v>
       </c>
       <c r="B172" t="n" s="386">
-        <v>30.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="173">
@@ -10299,7 +10296,7 @@
         <v>175</v>
       </c>
       <c r="B173" t="n" s="387">
-        <v>14.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="174">
@@ -10307,7 +10304,7 @@
         <v>176</v>
       </c>
       <c r="B174" t="n" s="388">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="175">
@@ -10315,7 +10312,7 @@
         <v>177</v>
       </c>
       <c r="B175" t="n" s="389">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="176">
@@ -10323,7 +10320,7 @@
         <v>178</v>
       </c>
       <c r="B176" t="n" s="390">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="177">
@@ -10331,7 +10328,7 @@
         <v>179</v>
       </c>
       <c r="B177" t="n" s="391">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="178">
@@ -10339,7 +10336,7 @@
         <v>180</v>
       </c>
       <c r="B178" t="n" s="392">
-        <v>12.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="179">
@@ -10347,7 +10344,7 @@
         <v>181</v>
       </c>
       <c r="B179" t="n" s="393">
-        <v>70.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="180">
@@ -10355,7 +10352,7 @@
         <v>182</v>
       </c>
       <c r="B180" t="n" s="394">
-        <v>12.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="181">
@@ -10363,7 +10360,7 @@
         <v>183</v>
       </c>
       <c r="B181" t="n" s="395">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="182">
@@ -10371,7 +10368,7 @@
         <v>184</v>
       </c>
       <c r="B182" t="n" s="396">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="183">
@@ -10379,7 +10376,7 @@
         <v>185</v>
       </c>
       <c r="B183" t="n" s="397">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="184">
@@ -10387,7 +10384,7 @@
         <v>186</v>
       </c>
       <c r="B184" t="n" s="398">
-        <v>5.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="185">
@@ -10395,7 +10392,7 @@
         <v>187</v>
       </c>
       <c r="B185" t="n" s="399">
-        <v>8.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="186">
@@ -10403,7 +10400,7 @@
         <v>188</v>
       </c>
       <c r="B186" t="n" s="400">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="187">
@@ -10411,7 +10408,7 @@
         <v>189</v>
       </c>
       <c r="B187" t="n" s="401">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="188">
@@ -10419,7 +10416,7 @@
         <v>190</v>
       </c>
       <c r="B188" t="n" s="402">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="189">
@@ -10427,7 +10424,7 @@
         <v>191</v>
       </c>
       <c r="B189" t="n" s="403">
-        <v>36.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="190">
@@ -10435,7 +10432,7 @@
         <v>192</v>
       </c>
       <c r="B190" t="n" s="404">
-        <v>14.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="191">
@@ -10443,7 +10440,7 @@
         <v>193</v>
       </c>
       <c r="B191" t="n" s="405">
-        <v>3.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="192">
@@ -10451,7 +10448,7 @@
         <v>194</v>
       </c>
       <c r="B192" t="n" s="406">
-        <v>19.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="193">
@@ -10459,7 +10456,7 @@
         <v>195</v>
       </c>
       <c r="B193" t="n" s="407">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="194">
@@ -10467,7 +10464,7 @@
         <v>196</v>
       </c>
       <c r="B194" t="n" s="408">
-        <v>44.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="195">
@@ -10475,7 +10472,7 @@
         <v>197</v>
       </c>
       <c r="B195" t="n" s="409">
-        <v>45.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="196">
@@ -10483,7 +10480,7 @@
         <v>198</v>
       </c>
       <c r="B196" t="n" s="410">
-        <v>28.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="197">
@@ -10491,7 +10488,7 @@
         <v>199</v>
       </c>
       <c r="B197" t="n" s="411">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="198">
@@ -10499,7 +10496,7 @@
         <v>200</v>
       </c>
       <c r="B198" t="n" s="412">
-        <v>8.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="199">
@@ -10507,7 +10504,7 @@
         <v>201</v>
       </c>
       <c r="B199" t="n" s="413">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="200">
@@ -10515,7 +10512,7 @@
         <v>202</v>
       </c>
       <c r="B200" t="n" s="414">
-        <v>20.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="201">
@@ -10523,7 +10520,7 @@
         <v>203</v>
       </c>
       <c r="B201" t="n" s="415">
-        <v>26.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="202">
@@ -10531,7 +10528,7 @@
         <v>204</v>
       </c>
       <c r="B202" t="n" s="416">
-        <v>33.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="203">
@@ -10539,7 +10536,7 @@
         <v>205</v>
       </c>
       <c r="B203" t="n" s="417">
-        <v>33.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="204">
@@ -10547,7 +10544,7 @@
         <v>206</v>
       </c>
       <c r="B204" t="n" s="418">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="205">
@@ -10555,7 +10552,7 @@
         <v>207</v>
       </c>
       <c r="B205" t="n" s="419">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="206">
@@ -10563,7 +10560,7 @@
         <v>208</v>
       </c>
       <c r="B206" t="n" s="420">
-        <v>11.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="207">
@@ -10571,7 +10568,7 @@
         <v>209</v>
       </c>
       <c r="B207" t="n" s="421">
-        <v>40.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="208">
@@ -10579,7 +10576,7 @@
         <v>210</v>
       </c>
       <c r="B208" t="n" s="422">
-        <v>62.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="209">
@@ -10587,7 +10584,7 @@
         <v>211</v>
       </c>
       <c r="B209" t="n" s="423">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="210">
@@ -10595,7 +10592,7 @@
         <v>212</v>
       </c>
       <c r="B210" t="n" s="424">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="211">
@@ -10603,7 +10600,7 @@
         <v>213</v>
       </c>
       <c r="B211" t="n" s="425">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="212">
@@ -10611,7 +10608,7 @@
         <v>214</v>
       </c>
       <c r="B212" t="n" s="426">
-        <v>6.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="213">
@@ -10619,7 +10616,7 @@
         <v>215</v>
       </c>
       <c r="B213" t="n" s="427">
-        <v>47.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="214">
@@ -10627,7 +10624,7 @@
         <v>216</v>
       </c>
       <c r="B214" t="n" s="428">
-        <v>57.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="215">
@@ -10635,7 +10632,7 @@
         <v>217</v>
       </c>
       <c r="B215" t="n" s="429">
-        <v>47.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="216">
@@ -10643,7 +10640,7 @@
         <v>218</v>
       </c>
       <c r="B216" t="n" s="430">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="217">
@@ -10651,7 +10648,7 @@
         <v>219</v>
       </c>
       <c r="B217" t="n" s="431">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="218">
@@ -10659,7 +10656,7 @@
         <v>220</v>
       </c>
       <c r="B218" t="n" s="432">
-        <v>35.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="219">
@@ -10667,7 +10664,7 @@
         <v>221</v>
       </c>
       <c r="B219" t="n" s="433">
-        <v>8.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="220">
@@ -10675,7 +10672,7 @@
         <v>222</v>
       </c>
       <c r="B220" t="n" s="434">
-        <v>40.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="221">
@@ -10683,7 +10680,7 @@
         <v>223</v>
       </c>
       <c r="B221" t="n" s="435">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="222">
@@ -10691,7 +10688,7 @@
         <v>224</v>
       </c>
       <c r="B222" t="n" s="436">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="223">
@@ -10699,7 +10696,7 @@
         <v>225</v>
       </c>
       <c r="B223" t="n" s="437">
-        <v>53.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="224">
@@ -10707,7 +10704,7 @@
         <v>226</v>
       </c>
       <c r="B224" t="n" s="438">
-        <v>64.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="225">
@@ -10715,7 +10712,7 @@
         <v>227</v>
       </c>
       <c r="B225" t="n" s="439">
-        <v>13.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="226">
@@ -10723,7 +10720,7 @@
         <v>228</v>
       </c>
       <c r="B226" t="n" s="440">
-        <v>5.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="227">
@@ -10731,7 +10728,7 @@
         <v>229</v>
       </c>
       <c r="B227" t="n" s="441">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="228">
@@ -10739,7 +10736,7 @@
         <v>230</v>
       </c>
       <c r="B228" t="n" s="442">
-        <v>25.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="229">
@@ -10747,7 +10744,7 @@
         <v>231</v>
       </c>
       <c r="B229" t="n" s="443">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="230">
@@ -10755,7 +10752,7 @@
         <v>232</v>
       </c>
       <c r="B230" t="n" s="444">
-        <v>54.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="231">
@@ -10763,7 +10760,7 @@
         <v>233</v>
       </c>
       <c r="B231" t="n" s="445">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="232">
@@ -10771,7 +10768,7 @@
         <v>234</v>
       </c>
       <c r="B232" t="n" s="446">
-        <v>13.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="233">
@@ -10779,7 +10776,7 @@
         <v>235</v>
       </c>
       <c r="B233" t="n" s="447">
-        <v>9.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="234">
@@ -10787,7 +10784,7 @@
         <v>236</v>
       </c>
       <c r="B234" t="n" s="448">
-        <v>22.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="235">
@@ -10795,7 +10792,7 @@
         <v>237</v>
       </c>
       <c r="B235" t="n" s="449">
-        <v>52.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="236">
@@ -10803,7 +10800,7 @@
         <v>238</v>
       </c>
       <c r="B236" t="n" s="450">
-        <v>33.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="237">
@@ -10811,7 +10808,7 @@
         <v>239</v>
       </c>
       <c r="B237" t="n" s="451">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="238">
@@ -10819,7 +10816,7 @@
         <v>240</v>
       </c>
       <c r="B238" t="n" s="452">
-        <v>66.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="239">
@@ -10827,7 +10824,7 @@
         <v>241</v>
       </c>
       <c r="B239" t="n" s="453">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="240">
@@ -10835,7 +10832,7 @@
         <v>242</v>
       </c>
       <c r="B240" t="n" s="454">
-        <v>13.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="241">
@@ -10843,7 +10840,7 @@
         <v>243</v>
       </c>
       <c r="B241" t="n" s="455">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="242">
@@ -10851,7 +10848,7 @@
         <v>244</v>
       </c>
       <c r="B242" t="n" s="456">
-        <v>90.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="243">
@@ -10859,7 +10856,7 @@
         <v>245</v>
       </c>
       <c r="B243" t="n" s="457">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="244">
@@ -10867,7 +10864,7 @@
         <v>246</v>
       </c>
       <c r="B244" t="n" s="458">
-        <v>35.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="245">
@@ -10875,7 +10872,7 @@
         <v>247</v>
       </c>
       <c r="B245" t="n" s="459">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="246">
@@ -10883,7 +10880,7 @@
         <v>248</v>
       </c>
       <c r="B246" t="n" s="460">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="247">
@@ -10891,7 +10888,7 @@
         <v>249</v>
       </c>
       <c r="B247" t="n" s="461">
-        <v>8.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="248">
@@ -10899,7 +10896,7 @@
         <v>250</v>
       </c>
       <c r="B248" t="n" s="462">
-        <v>28.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="249">
@@ -10907,7 +10904,7 @@
         <v>251</v>
       </c>
       <c r="B249" t="n" s="463">
-        <v>45.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="250">
@@ -10915,7 +10912,7 @@
         <v>252</v>
       </c>
       <c r="B250" t="n" s="464">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="251">
@@ -10923,7 +10920,7 @@
         <v>253</v>
       </c>
       <c r="B251" t="n" s="465">
-        <v>60.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="252">
@@ -10931,7 +10928,7 @@
         <v>254</v>
       </c>
       <c r="B252" t="n" s="466">
-        <v>33.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="253">
@@ -10939,7 +10936,7 @@
         <v>255</v>
       </c>
       <c r="B253" t="n" s="467">
-        <v>11.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="254">
@@ -10947,7 +10944,7 @@
         <v>256</v>
       </c>
       <c r="B254" t="n" s="468">
-        <v>12.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="255">
@@ -10955,7 +10952,7 @@
         <v>257</v>
       </c>
       <c r="B255" t="n" s="469">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="256">
@@ -10963,7 +10960,7 @@
         <v>258</v>
       </c>
       <c r="B256" t="n" s="470">
-        <v>49.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="257">
@@ -10971,7 +10968,7 @@
         <v>259</v>
       </c>
       <c r="B257" t="n" s="471">
-        <v>56.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="258">
@@ -10979,7 +10976,7 @@
         <v>260</v>
       </c>
       <c r="B258" t="n" s="472">
-        <v>35.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="259">
@@ -10987,7 +10984,7 @@
         <v>261</v>
       </c>
       <c r="B259" t="n" s="473">
-        <v>57.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="260">
@@ -10995,7 +10992,7 @@
         <v>262</v>
       </c>
       <c r="B260" t="n" s="474">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="261">
@@ -11003,7 +11000,7 @@
         <v>263</v>
       </c>
       <c r="B261" t="n" s="475">
-        <v>8.0</v>
+        <v>299.0</v>
       </c>
     </row>
     <row r="262">
@@ -11011,7 +11008,7 @@
         <v>264</v>
       </c>
       <c r="B262" t="n" s="476">
-        <v>37.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="263">
@@ -11019,7 +11016,7 @@
         <v>265</v>
       </c>
       <c r="B263" t="n" s="477">
-        <v>50.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="264">
@@ -11027,7 +11024,7 @@
         <v>266</v>
       </c>
       <c r="B264" t="n" s="478">
-        <v>20.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="265">
@@ -11035,7 +11032,7 @@
         <v>267</v>
       </c>
       <c r="B265" t="n" s="479">
-        <v>13.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="266">
@@ -11043,7 +11040,7 @@
         <v>268</v>
       </c>
       <c r="B266" t="n" s="480">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="267">
@@ -11051,7 +11048,7 @@
         <v>269</v>
       </c>
       <c r="B267" t="n" s="481">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="268">
@@ -11059,7 +11056,7 @@
         <v>270</v>
       </c>
       <c r="B268" t="n" s="482">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="269">
@@ -11067,7 +11064,7 @@
         <v>271</v>
       </c>
       <c r="B269" t="n" s="483">
-        <v>50.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="270">
@@ -11075,7 +11072,7 @@
         <v>272</v>
       </c>
       <c r="B270" t="n" s="484">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="271">
@@ -11083,7 +11080,7 @@
         <v>273</v>
       </c>
       <c r="B271" t="n" s="485">
-        <v>99.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="272">
@@ -11091,7 +11088,7 @@
         <v>274</v>
       </c>
       <c r="B272" t="n" s="486">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="273">
@@ -11099,7 +11096,7 @@
         <v>275</v>
       </c>
       <c r="B273" t="n" s="487">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="274">
@@ -11107,7 +11104,7 @@
         <v>276</v>
       </c>
       <c r="B274" t="n" s="488">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="275">
@@ -11115,7 +11112,7 @@
         <v>277</v>
       </c>
       <c r="B275" t="n" s="489">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="276">
@@ -11123,7 +11120,7 @@
         <v>278</v>
       </c>
       <c r="B276" t="n" s="490">
-        <v>37.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="277">
@@ -11131,7 +11128,7 @@
         <v>279</v>
       </c>
       <c r="B277" t="n" s="491">
-        <v>51.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="278">
@@ -11139,7 +11136,7 @@
         <v>280</v>
       </c>
       <c r="B278" t="n" s="492">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="279">
@@ -11147,7 +11144,7 @@
         <v>281</v>
       </c>
       <c r="B279" t="n" s="493">
-        <v>55.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="280">
@@ -11155,7 +11152,7 @@
         <v>282</v>
       </c>
       <c r="B280" t="n" s="494">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="281">
@@ -11163,7 +11160,7 @@
         <v>283</v>
       </c>
       <c r="B281" t="n" s="495">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="282">
@@ -11171,7 +11168,7 @@
         <v>284</v>
       </c>
       <c r="B282" t="n" s="496">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="283">
@@ -11179,7 +11176,7 @@
         <v>285</v>
       </c>
       <c r="B283" t="n" s="497">
-        <v>33.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="284">
@@ -11187,7 +11184,7 @@
         <v>286</v>
       </c>
       <c r="B284" t="n" s="498">
-        <v>299.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="285">
@@ -11195,7 +11192,7 @@
         <v>287</v>
       </c>
       <c r="B285" t="n" s="499">
-        <v>163.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="286">
@@ -11203,7 +11200,7 @@
         <v>288</v>
       </c>
       <c r="B286" t="n" s="500">
-        <v>44.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="287">
@@ -11211,7 +11208,7 @@
         <v>289</v>
       </c>
       <c r="B287" t="n" s="501">
-        <v>93.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="288">
@@ -11219,7 +11216,7 @@
         <v>290</v>
       </c>
       <c r="B288" t="n" s="502">
-        <v>45.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="289">
@@ -11227,7 +11224,7 @@
         <v>291</v>
       </c>
       <c r="B289" t="n" s="503">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="290">
@@ -11235,7 +11232,7 @@
         <v>292</v>
       </c>
       <c r="B290" t="n" s="504">
-        <v>33.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="291">
@@ -11243,7 +11240,7 @@
         <v>293</v>
       </c>
       <c r="B291" t="n" s="505">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="292">
@@ -11251,7 +11248,7 @@
         <v>294</v>
       </c>
       <c r="B292" t="n" s="506">
-        <v>57.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="293">
@@ -11259,7 +11256,7 @@
         <v>295</v>
       </c>
       <c r="B293" t="n" s="507">
-        <v>76.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="294">
@@ -11267,7 +11264,7 @@
         <v>296</v>
       </c>
       <c r="B294" t="n" s="508">
-        <v>35.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="295">
@@ -11275,7 +11272,7 @@
         <v>297</v>
       </c>
       <c r="B295" t="n" s="509">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="296">
@@ -11283,7 +11280,7 @@
         <v>298</v>
       </c>
       <c r="B296" t="n" s="510">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="297">
@@ -11291,7 +11288,7 @@
         <v>299</v>
       </c>
       <c r="B297" t="n" s="511">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="298">
@@ -11299,7 +11296,7 @@
         <v>300</v>
       </c>
       <c r="B298" t="n" s="512">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="299">
@@ -11307,7 +11304,7 @@
         <v>301</v>
       </c>
       <c r="B299" t="n" s="513">
-        <v>34.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="300">
@@ -11315,7 +11312,7 @@
         <v>302</v>
       </c>
       <c r="B300" t="n" s="514">
-        <v>90.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="301">
@@ -11323,7 +11320,7 @@
         <v>303</v>
       </c>
       <c r="B301" t="n" s="515">
-        <v>39.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="302">
@@ -11331,7 +11328,7 @@
         <v>304</v>
       </c>
       <c r="B302" t="n" s="516">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="303">
@@ -11339,7 +11336,7 @@
         <v>305</v>
       </c>
       <c r="B303" t="n" s="517">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="304">
@@ -11347,7 +11344,7 @@
         <v>306</v>
       </c>
       <c r="B304" t="n" s="518">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="305">
@@ -11355,7 +11352,7 @@
         <v>307</v>
       </c>
       <c r="B305" t="n" s="519">
-        <v>35.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="306">
@@ -11363,7 +11360,7 @@
         <v>308</v>
       </c>
       <c r="B306" t="n" s="520">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="307">
@@ -11371,7 +11368,7 @@
         <v>309</v>
       </c>
       <c r="B307" t="n" s="521">
-        <v>22.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="308">
@@ -11379,7 +11376,7 @@
         <v>310</v>
       </c>
       <c r="B308" t="n" s="522">
-        <v>92.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="309">
@@ -11387,7 +11384,7 @@
         <v>311</v>
       </c>
       <c r="B309" t="n" s="523">
-        <v>10.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="310">
@@ -11395,7 +11392,7 @@
         <v>312</v>
       </c>
       <c r="B310" t="n" s="524">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="311">
@@ -11403,7 +11400,7 @@
         <v>313</v>
       </c>
       <c r="B311" t="n" s="525">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="312">
@@ -11411,7 +11408,7 @@
         <v>314</v>
       </c>
       <c r="B312" t="n" s="526">
-        <v>28.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="313">
@@ -11419,7 +11416,7 @@
         <v>315</v>
       </c>
       <c r="B313" t="n" s="527">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="314">
@@ -11427,7 +11424,7 @@
         <v>316</v>
       </c>
       <c r="B314" t="n" s="528">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="315">
@@ -11435,7 +11432,7 @@
         <v>317</v>
       </c>
       <c r="B315" t="n" s="529">
-        <v>96.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="316">
@@ -11443,7 +11440,7 @@
         <v>318</v>
       </c>
       <c r="B316" t="n" s="530">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="317">
@@ -11451,7 +11448,7 @@
         <v>319</v>
       </c>
       <c r="B317" t="n" s="531">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="318">
@@ -11459,7 +11456,7 @@
         <v>320</v>
       </c>
       <c r="B318" t="n" s="532">
-        <v>65.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="319">
@@ -11467,7 +11464,7 @@
         <v>321</v>
       </c>
       <c r="B319" t="n" s="533">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="320">
@@ -11475,7 +11472,7 @@
         <v>322</v>
       </c>
       <c r="B320" t="n" s="534">
-        <v>31.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="321">
@@ -11483,7 +11480,7 @@
         <v>323</v>
       </c>
       <c r="B321" t="n" s="535">
-        <v>42.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="322">
@@ -11491,7 +11488,7 @@
         <v>324</v>
       </c>
       <c r="B322" t="n" s="536">
-        <v>42.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="323">
@@ -11499,7 +11496,7 @@
         <v>325</v>
       </c>
       <c r="B323" t="n" s="537">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="324">
@@ -11507,7 +11504,7 @@
         <v>326</v>
       </c>
       <c r="B324" t="n" s="538">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="325">
@@ -11515,7 +11512,7 @@
         <v>327</v>
       </c>
       <c r="B325" t="n" s="539">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="326">
@@ -11523,7 +11520,7 @@
         <v>328</v>
       </c>
       <c r="B326" t="n" s="540">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="327">
@@ -11531,7 +11528,7 @@
         <v>329</v>
       </c>
       <c r="B327" t="n" s="541">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="328">
@@ -11539,7 +11536,7 @@
         <v>330</v>
       </c>
       <c r="B328" t="n" s="542">
-        <v>24.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="329">
@@ -11547,7 +11544,7 @@
         <v>331</v>
       </c>
       <c r="B329" t="n" s="543">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="330">
@@ -11555,7 +11552,7 @@
         <v>332</v>
       </c>
       <c r="B330" t="n" s="544">
-        <v>57.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="331">
@@ -11563,7 +11560,7 @@
         <v>333</v>
       </c>
       <c r="B331" t="n" s="545">
-        <v>16.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="332">
@@ -11571,7 +11568,7 @@
         <v>334</v>
       </c>
       <c r="B332" t="n" s="546">
-        <v>35.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="333">
@@ -11579,7 +11576,7 @@
         <v>335</v>
       </c>
       <c r="B333" t="n" s="547">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="334">
@@ -11587,7 +11584,7 @@
         <v>336</v>
       </c>
       <c r="B334" t="n" s="548">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="335">
@@ -11595,7 +11592,7 @@
         <v>337</v>
       </c>
       <c r="B335" t="n" s="549">
-        <v>18.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="336">
@@ -11603,7 +11600,7 @@
         <v>338</v>
       </c>
       <c r="B336" t="n" s="550">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="337">
@@ -11611,7 +11608,7 @@
         <v>339</v>
       </c>
       <c r="B337" t="n" s="551">
-        <v>13.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="338">
@@ -11619,7 +11616,7 @@
         <v>340</v>
       </c>
       <c r="B338" t="n" s="552">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="339">
@@ -11627,7 +11624,7 @@
         <v>341</v>
       </c>
       <c r="B339" t="n" s="553">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="340">
@@ -11635,7 +11632,7 @@
         <v>342</v>
       </c>
       <c r="B340" t="n" s="554">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="341">
@@ -11643,7 +11640,7 @@
         <v>343</v>
       </c>
       <c r="B341" t="n" s="555">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="342">
@@ -11651,7 +11648,7 @@
         <v>344</v>
       </c>
       <c r="B342" t="n" s="556">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="343">
@@ -11659,7 +11656,7 @@
         <v>345</v>
       </c>
       <c r="B343" t="n" s="557">
-        <v>71.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="344">
@@ -11667,7 +11664,7 @@
         <v>346</v>
       </c>
       <c r="B344" t="n" s="558">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="345">
@@ -11675,7 +11672,7 @@
         <v>347</v>
       </c>
       <c r="B345" t="n" s="559">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="346">
@@ -11683,7 +11680,7 @@
         <v>348</v>
       </c>
       <c r="B346" t="n" s="560">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="347">
@@ -11691,7 +11688,7 @@
         <v>349</v>
       </c>
       <c r="B347" t="n" s="561">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="348">
@@ -11699,7 +11696,7 @@
         <v>350</v>
       </c>
       <c r="B348" t="n" s="562">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="349">
@@ -11707,7 +11704,7 @@
         <v>351</v>
       </c>
       <c r="B349" t="n" s="563">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="350">
@@ -11715,7 +11712,7 @@
         <v>352</v>
       </c>
       <c r="B350" t="n" s="564">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="351">
@@ -11731,7 +11728,7 @@
         <v>354</v>
       </c>
       <c r="B352" t="n" s="566">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="353">
@@ -11739,7 +11736,7 @@
         <v>355</v>
       </c>
       <c r="B353" t="n" s="567">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="354">
@@ -11747,7 +11744,7 @@
         <v>356</v>
       </c>
       <c r="B354" t="n" s="568">
-        <v>55.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="355">
@@ -11755,7 +11752,7 @@
         <v>357</v>
       </c>
       <c r="B355" t="n" s="569">
-        <v>47.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="356">
@@ -11763,7 +11760,7 @@
         <v>358</v>
       </c>
       <c r="B356" t="n" s="570">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="357">
@@ -11771,7 +11768,7 @@
         <v>359</v>
       </c>
       <c r="B357" t="n" s="571">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="358">
@@ -11779,7 +11776,7 @@
         <v>360</v>
       </c>
       <c r="B358" t="n" s="572">
-        <v>57.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="359">
@@ -11787,7 +11784,7 @@
         <v>361</v>
       </c>
       <c r="B359" t="n" s="573">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="360">
@@ -11795,7 +11792,7 @@
         <v>362</v>
       </c>
       <c r="B360" t="n" s="574">
-        <v>30.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="361">
@@ -11803,7 +11800,7 @@
         <v>363</v>
       </c>
       <c r="B361" t="n" s="575">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="362">
@@ -11811,7 +11808,7 @@
         <v>364</v>
       </c>
       <c r="B362" t="n" s="576">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="363">
@@ -11819,7 +11816,7 @@
         <v>365</v>
       </c>
       <c r="B363" t="n" s="577">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="364">
@@ -11827,7 +11824,7 @@
         <v>366</v>
       </c>
       <c r="B364" t="n" s="578">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="365">
@@ -11835,7 +11832,7 @@
         <v>367</v>
       </c>
       <c r="B365" t="n" s="579">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="366">
@@ -11843,7 +11840,7 @@
         <v>368</v>
       </c>
       <c r="B366" t="n" s="580">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="367">
@@ -11851,7 +11848,7 @@
         <v>369</v>
       </c>
       <c r="B367" t="n" s="581">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="368">
@@ -11859,7 +11856,7 @@
         <v>370</v>
       </c>
       <c r="B368" t="n" s="582">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -11882,343 +11879,343 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="583">
+        <v>437</v>
+      </c>
+      <c r="B1" t="s" s="584">
         <v>438</v>
       </c>
-      <c r="B1" t="s" s="584">
+      <c r="C1" t="s" s="585">
         <v>439</v>
-      </c>
-      <c r="C1" t="s" s="585">
-        <v>440</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" t="s">
         <v>441</v>
       </c>
-      <c r="B2" t="s">
-        <v>442</v>
-      </c>
       <c r="C2" t="n" s="586">
-        <v>0.06845284253358841</v>
+        <v>0.06995315849781036</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" t="n" s="587">
-        <v>0.06543286144733429</v>
+        <v>0.0648852065205574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C4" t="n" s="588">
-        <v>0.06450363993644714</v>
+        <v>0.06342624872922897</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C5" t="n" s="589">
-        <v>0.0449899323284626</v>
+        <v>0.04430622607469559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C6" t="n" s="590">
-        <v>0.01974601298570633</v>
+        <v>0.021039698272943497</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B7" t="s">
         <v>447</v>
       </c>
-      <c r="B7" t="s">
-        <v>448</v>
-      </c>
       <c r="C7" t="n" s="591">
-        <v>0.17732693254947662</v>
+        <v>0.175842747092247</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C8" t="n" s="592">
-        <v>0.11506891995668411</v>
+        <v>0.11472011357545853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C9" t="n" s="593">
-        <v>0.04870682954788208</v>
+        <v>0.048529524356126785</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C10" t="n" s="594">
-        <v>0.024237262085080147</v>
+        <v>0.02388082630932331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C11" t="n" s="595">
-        <v>0.023540344089269638</v>
+        <v>0.02349689044058323</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B12" t="s">
         <v>453</v>
       </c>
-      <c r="B12" t="s">
-        <v>454</v>
-      </c>
       <c r="C12" t="n" s="596">
-        <v>0.20264828205108643</v>
+        <v>0.20195040106773376</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C13" t="n" s="597">
-        <v>0.17097723484039307</v>
+        <v>0.17092835903167725</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C14" t="n" s="598">
-        <v>0.11568839848041534</v>
+        <v>0.11617907136678696</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C15" t="n" s="599">
-        <v>0.07255691289901733</v>
+        <v>0.07241035252809525</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C16" t="n" s="600">
-        <v>0.05157193914055824</v>
+        <v>0.051447439938783646</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>458</v>
+      </c>
+      <c r="B17" t="s">
         <v>459</v>
       </c>
-      <c r="B17" t="s">
-        <v>460</v>
-      </c>
       <c r="C17" t="n" s="601">
-        <v>0.3744772970676422</v>
+        <v>0.374798446893692</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C18" t="n" s="602">
-        <v>0.33870217204093933</v>
+        <v>0.33632802963256836</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C19" t="n" s="603">
-        <v>0.03833049535751343</v>
+        <v>0.038700759410858154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C20" t="n" s="604">
-        <v>0.034923337399959564</v>
+        <v>0.0357060581445694</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C21" t="n" s="605">
-        <v>0.023617779836058617</v>
+        <v>0.02472548559308052</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B22" t="s">
         <v>465</v>
       </c>
-      <c r="B22" t="s">
-        <v>466</v>
-      </c>
       <c r="C22" t="n" s="606">
-        <v>0.26947498321533203</v>
+        <v>0.2686017155647278</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C23" t="n" s="607">
-        <v>0.1107325404882431</v>
+        <v>0.10850034654140472</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C24" t="n" s="608">
-        <v>0.08974756300449371</v>
+        <v>0.08999462425708771</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C25" t="n" s="609">
-        <v>0.08881833404302597</v>
+        <v>0.08884281665086746</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C26" t="n" s="610">
-        <v>0.06938206404447556</v>
+        <v>0.07049067318439484</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B27" t="s">
         <v>471</v>
       </c>
-      <c r="B27" t="s">
-        <v>472</v>
-      </c>
       <c r="C27" t="n" s="611">
-        <v>0.012931701727211475</v>
+        <v>0.012746678665280342</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B28" t="s">
+        <v>472</v>
+      </c>
+      <c r="C28" t="s" s="612">
         <v>473</v>
-      </c>
-      <c r="C28" t="s" s="612">
-        <v>474</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C29" t="s" s="613">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C30" t="s" s="614">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C31" t="s" s="615">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
